--- a/data/ответы.xlsx
+++ b/data/ответы.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\.vscode\project_1\main_project\InfoCompas\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3524" uniqueCount="1347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3526" uniqueCount="1349">
   <si>
     <t>Текст вопроса</t>
   </si>
@@ -4699,6 +4699,12 @@
   </si>
   <si>
     <t>Что такое Банк?</t>
+  </si>
+  <si>
+    <t>Банк России это?Банк России?Центробанк?Центральный Банк России?</t>
+  </si>
+  <si>
+    <t>Центральный банк Российской Федерации — главный эмиссионный и денежно-кредитный регулятор страны.В 1860 году российский император Александр II подписал указ об образовании Государственного банка. Так началась история Банка России.Следуя традициям и активно внедряя инновации, сегодня Банк России является высокотехнологичным мегарегулятором, который отвечает за стабильность всей финансовой системы страны.</t>
   </si>
 </sst>
 </file>
@@ -5624,10 +5630,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:E881"/>
+  <dimension ref="A1:E882"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D603" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D606" sqref="D606"/>
+    <sheetView tabSelected="1" topLeftCell="A867" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C882" sqref="C882:D882"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -17981,6 +17987,14 @@
       </c>
       <c r="D881" s="5" t="s">
         <v>1333</v>
+      </c>
+    </row>
+    <row r="882" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="C882" s="5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="D882" s="5" t="s">
+        <v>1348</v>
       </c>
     </row>
   </sheetData>

--- a/data/ответы.xlsx
+++ b/data/ответы.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2900" uniqueCount="1414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="1665">
   <si>
     <t>Текст вопроса</t>
   </si>
@@ -5024,6 +5024,1158 @@
   </si>
   <si>
     <t>привязать к сотруднику две МЧД?привязать к сотруднику несколько МЧД?</t>
+  </si>
+  <si>
+    <t>Ошибка 0</t>
+  </si>
+  <si>
+    <t>Ошибка 0ХХХ</t>
+  </si>
+  <si>
+    <t>Ошибка 1001</t>
+  </si>
+  <si>
+    <t>Ошибка 1003</t>
+  </si>
+  <si>
+    <t>Ошибка 1005</t>
+  </si>
+  <si>
+    <t>Ошибка 1006</t>
+  </si>
+  <si>
+    <t>Ошибка 1007</t>
+  </si>
+  <si>
+    <t>Ошибка 3001</t>
+  </si>
+  <si>
+    <t>Ошибка 3003</t>
+  </si>
+  <si>
+    <t>Ошибка 3004</t>
+  </si>
+  <si>
+    <t>Ошибка 3012</t>
+  </si>
+  <si>
+    <t>Ошибка 4001</t>
+  </si>
+  <si>
+    <t>Ошибка 4002</t>
+  </si>
+  <si>
+    <t>Ошибка 4003</t>
+  </si>
+  <si>
+    <t>Ошибка 4005</t>
+  </si>
+  <si>
+    <t>Ошибка 4006</t>
+  </si>
+  <si>
+    <t>Ошибка 4010</t>
+  </si>
+  <si>
+    <t>Ошибка 9001</t>
+  </si>
+  <si>
+    <t>Ошибка 9002</t>
+  </si>
+  <si>
+    <t>Сообщение успешно обработано</t>
+  </si>
+  <si>
+    <t>Коды ошибок HTTP (Используются для потока АС ВХД &lt;-&gt; Диадок)</t>
+  </si>
+  <si>
+    <t>Сообщение не будет обработано, поскольку не соответствует требуемой структуре</t>
+  </si>
+  <si>
+    <t>Сообщение не будет обработано, поскольку его формат не поддерживается Транспортным шлюзом ЕПВВ</t>
+  </si>
+  <si>
+    <t>Сообщение не будет обработано, поскольку архив сформирован неверно</t>
+  </si>
+  <si>
+    <t>Сообщение не будет обработано, поскольку служебный конверт не соответствует требуемой структуре</t>
+  </si>
+  <si>
+    <t>Сообщение не будет обработано, поскольку служебный конверт заполнен некорректно</t>
+  </si>
+  <si>
+    <t>Сообщение не будет обработано, поскольку не соответствует регламенту</t>
+  </si>
+  <si>
+    <t>Сообщение не будет обработано, поскольку заражено вирусом</t>
+  </si>
+  <si>
+    <t>Сообщение не будет обработано, поскольку адресная информация указана некорректно</t>
+  </si>
+  <si>
+    <t>Не удалось доставить сообщение в Банк России по техническим причинам</t>
+  </si>
+  <si>
+    <t>Произошла ошибка при расшифровании сообщения</t>
+  </si>
+  <si>
+    <t>Произошла ошибка при проверке электронной подписи в сообщении</t>
+  </si>
+  <si>
+    <t>Произошла ошибка при шифровании сообщения</t>
+  </si>
+  <si>
+    <t>Произошла ошибка при наложении электронной подписи на сообщение</t>
+  </si>
+  <si>
+    <t>Произошла ошибка при импорте сертификата</t>
+  </si>
+  <si>
+    <t>Неизвестная задача</t>
+  </si>
+  <si>
+    <t>Общая ошибка обработки сообщения</t>
+  </si>
+  <si>
+    <t>Не удалось подготовить объект к отправке по назначению</t>
+  </si>
+  <si>
+    <t>Ошибка Не найден заемщик</t>
+  </si>
+  <si>
+    <t>Ошибка Не найдена ссуда</t>
+  </si>
+  <si>
+    <t>Ошибка Неизвестный тип документа</t>
+  </si>
+  <si>
+    <t>Ошибка Имя файла не соответствует формату XXXXXXXXXX_YY_ZZ.sss</t>
+  </si>
+  <si>
+    <t>Ошибка Получены не все тома архива</t>
+  </si>
+  <si>
+    <t>Ошибка Заемщик не определен</t>
+  </si>
+  <si>
+    <t>Ошибка Договор не определен</t>
+  </si>
+  <si>
+    <t>Ошибка Неизвестный номер КО</t>
+  </si>
+  <si>
+    <t>Ошибка Отсутствует отчётный период</t>
+  </si>
+  <si>
+    <t>Файл по своему типу соответствует файлу заемщика, в БД отсутствуют сведения о заемщике с номером ИНН, указанным в названии файла. Причины: по данному заемщику отсутствуют записи в 303 форме за отчётный период, за который был направлен файл</t>
+  </si>
+  <si>
+    <t>Тип документа соответствует файлу ссуды, но в БД по данному заемщику отсутствуют записи в 303 форме за отчётный период, за который был направлен файл</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Не определен тип файла:
+Допустимые типы файлов ссуд:
+kd, ds, ps, cl, dc, ur, di
+Допустимые типы файлов заемщиков:
+bl, pu, rs, cd, ov, zb, vs, ss, vd, di, zn, mb
+Допустимые типы файлов к обеспечению:
+zl
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименования файлов, содержащих первичную информацию имеют вид: XXXXXXXXXX_YY_ZZ.sss, где:
+XXXXXXXXXX – идентификационный код ссуды, или ИНН заемщика, в зависимости от того, к ссуде или заемщику относится информация в файле;
+YY – код тип документа;
+ZZ – порядковый номер документа, если предоставляется несколько документов одного и того же типа;
+sss – расширение файла: pdf, xls, doc и т.п.
+</t>
+  </si>
+  <si>
+    <t>Ошибка в имени архивного файла</t>
+  </si>
+  <si>
+    <t>Ошибка при распаковке файла</t>
+  </si>
+  <si>
+    <t>Требования к архивному файлу кредитной организации:
+формат архива - zip, .rar, .7z, tar;
+архив содержит файлы с первичной информацией только за один отчётный период;
+имя архива задается в формате [RRRR]_[DDMMYYYY]_[NN].sss, где
+- RRRR – номер лицензии КО;
+- DDMMYYYY – ОТЧЁТНАЯ ДАТА DD - день, MM – месяц, YYYY – год; DD – обязательно должен быть 01.
+- NN – порядковый номер архива, передаваемый КО за отчётный период (НЕОБЯЗАТЕЛЬНЫЙ);
+архив может быть однотомным и многотомным.</t>
+  </si>
+  <si>
+    <t>Из ЛК КО отправлены не все части многотомного архива</t>
+  </si>
+  <si>
+    <t>Не удалось распаковать сам архив или вложенный в него архив</t>
+  </si>
+  <si>
+    <t>Найдено более одного заемщика.</t>
+  </si>
+  <si>
+    <t>Найдено более одного договора (несколько ссуд с одним и тем же идентификатором)</t>
+  </si>
+  <si>
+    <t>В справочнике КО отсутствует КО с номером, совпадающим с номером лицензии, переданном при загрузке файла</t>
+  </si>
+  <si>
+    <t>Отчётный период, указанный в имени загружаемого файла не соотносится с имеющимся</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_1-6
+ (НФО-П-13 – Отчётность, квитанции;Система: СО УИО);
+Представление отчётности в Банк России;
+Организации, реализующие функции центрального контрагента;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_1-7
+ (НФО-П-13 – Отчётность, квитанции;Система: СО УИО);
+Представление отчётности в Банк России;
+Субъекты рынка ценных бумаг и товарного рынка;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_1-9
+ (Отчетность УИО ;Система: СО ССД);
+Представление отчетности в Банк России ;
+Субъекты страхового дела;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_1-18
+ (НФО-П-13 – Отчётность, квитанции;Система: СО УИО);
+Представление отчётности в Банк России;
+Кредитные рейтинговые агентства;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_1-21
+ (НФО-П-13 – Отчётность, квитанции;Система: СО УИО);
+Представление отчётности в Банк России;
+Пенсионный фонд РФ;
+</t>
+  </si>
+  <si>
+    <t>Zadacha_1-24-2
+ (НФО-П-13 – Отчётность, квитанции;Система: ТПС НЕВА);
+Представление отчётности в Банк России;
+Респонденты прямых инвестиций;
+В формате pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_1-28
+ (Отчетность УИО;Система: ПИС);
+Представление отчётности в Банк России;
+Отправить XBRL;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_1-29
+ (НФО-П-13 – Отчётность, квитанции;Система: СО УИО);
+Представление отчётности в Банк России;
+Аккредитованные организации;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_1-30
+ (НФО-П-13 – Отчётность, квитанции;Система: СО ССД);
+Представление отчётности в Банк России;
+Получение отчётности из Клиентского ПО через REST-сервис от НФО;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_1-31
+ (ЭДО активы;Система: АС ППА);
+Электронный документооборот с Банком России;
+Получение информации из Клиентского ПО через REST-сервис от КО;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_1-32
+ (НФО-П-13 – Отчётность, квитанции;Система: СО УИО);
+Представление отчётности в Банк России;
+Получение отчётности из Клиентского ПО через SOAP-сервис;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_1-33
+ (НФО-П-13 – Отчётность, квитанции;Система: ЕПВВ);
+Предписание (требование), запрос из Банка России;
+Массовая рассылка по П-550;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_1-35
+ (НФО-П-13 – Отчётность, квитанции;Система: );
+Представление отчётности в Банк России;
+Информационные агентства;
+</t>
+  </si>
+  <si>
+    <t>Zadacha_1-40-2
+ (ЭДО_активы;Система: АС ППА);
+Электронный документооборот с Банком России;
+Электронный документооборот;
+Активы КО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_2-1
+ (НФО-П-13 – САДД (входящие);Система: САДД БР);
+Письмо (обращение, запрос) в Банк России;
+Ответ на запрос, предписание. Запрос в Банк России. Квитанции из ЕПВВ;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_3-1
+ (НФО-П-13 – САДД (исходящие);Система: ЕПВВ);
+Предписание (требование), запрос из Банка России;
+Запрос, предписание. Ответ на запрос НФО. Квитанции из САДД;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_17
+ (НФО-П-13 – Отчётность, квитанции;Система: СО УИО);
+Представление отчётности в Банк России;
+Субъекты рынка коллективных инвестиций;
+</t>
+  </si>
+  <si>
+    <t>Zadacha_20
+ (ЭДО_активы;Система: ЕПВВ);
+Электронный документооборот с Банком России;
+Электронный документооборот;
+Активы КО (обратный поток)</t>
+  </si>
+  <si>
+    <t>Zadacha_22
+ (НФО-П-13 – Отчётность, квитанции;Система: СО УИО);
+Представление отчётности в Банк России;
+Саморегулируемые организации в сфере финансового рынка;
+Отчётность саморегулируемых организаций в сфере финансового рынка</t>
+  </si>
+  <si>
+    <t>Zadacha_24
+ (НФО-П-13 – Отчётность, квитанции;Система: СО УИО);
+Представление отчётности в Банк России;
+МФО;
+Отчётность микрофинансовых организаций</t>
+  </si>
+  <si>
+    <t>Zadacha_25
+ (НФО-П-13 – Отчётность, квитанции;Система: СО УИО);
+Представление отчётности в Банк России;
+Кредитные потребительские кооперативы;
+Отчётность кредитных потребительских кооперативов</t>
+  </si>
+  <si>
+    <t>Zadacha_26
+ (НФО-П-13 – Отчётность, квитанции;Система: СО УИО);
+Представление отчётности в Банк России;
+Жилищные накопительные кооперативы;
+Отчётность жилищных накопительных кооперативов</t>
+  </si>
+  <si>
+    <t>Zadacha_27
+ (НФО-П-13 – Отчётность, квитанции;Система: СО УИО);
+Представление отчётности в Банк России;
+Сельскохозяйственные кредитные потребительские кооперативы;
+Отчётность сельскохозяйственных кредитных потребительских кооперативов</t>
+  </si>
+  <si>
+    <t>Zadacha_28
+ (НФО-П-13 – Отчётность, квитанции;Система: СО УИО);
+Представление отчётности в Банк России;
+Ломбард;
+Отчётность ломбардов</t>
+  </si>
+  <si>
+    <t>Zadacha_29
+ (НФО-П-13 – Отчётность, квитанции;Система: СО УИО);
+Представление отчётности в Банк России;
+Субъекты рынка ценных бумаг и товарного рынка;
+Отчётность субъектов рынка ценных бумаг и товарного рынка</t>
+  </si>
+  <si>
+    <t>Zadacha_30
+ (НФО-П-13 – Отчётность, квитанции;Система: СО ССД);
+Представление отчётности в Банк России;
+Субъекты страхового дела;
+Отчётность страховых брокеров</t>
+  </si>
+  <si>
+    <t>Zadacha_31
+ (НФО-П-13 – Отчётность, квитанции;Система: СО ССД);
+Представление отчётности в Банк России;
+Субъекты страхового дела;
+ГКФО</t>
+  </si>
+  <si>
+    <t>Zadacha_32
+ (НФО-П-13 – Отчётность, квитанции;Система: СО ССД);
+Представление отчётности в Банк России;
+Субъекты страхового дела;
+Отчётность страховщиков за периоды по 31.12.2017 включительно и по ОКУД 0420001, начиная с 2018 г</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_40
+ (ЭДО_ДКО;Система: АС ДКО);
+Электронный документооборот с Банком России ;
+Электронный документооборот;
+ЭДО ДКО </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_41
+ (ЭДО_ДКО;Система: АС ДКО);
+Электронный документооборот с Банком России ;
+Получение информации из Клиентского ПО через REST-сервис от КО ;
+</t>
+  </si>
+  <si>
+    <t>Zadacha_42
+ (ЭДО_ДКО;Система: ЕПВВ);
+Электронный документооборот с Банком России;
+Электронный документооборот;
+ЭДО ДКО (обратный поток)</t>
+  </si>
+  <si>
+    <t>Zadacha_44
+ (;Система: ПИС);
+Электронный документооборот с Банком России;
+Федеральные статистические наблюдения, утвержденные Указанием Банка России от 25.11.2019 № 5328-У;
+Передача отчетности 1-ИЦБ, 1-АРЕНДА, 1-ПОЕЗДКИ, 1-РОУМИНГ, 1,2,3-ТРАНСПОРТ, 1-МЕД</t>
+  </si>
+  <si>
+    <t>Zadacha_46
+ (;Система: ПИС);
+Представление отчетности в Банк России;
+Информационные агентства;
+Протоколы раскрытия информации</t>
+  </si>
+  <si>
+    <t>Zadacha_47
+ (;Система: ПИС);
+Представление отчетности в Банк России;
+Информационные агентства;
+Сообщения из Ленты раскрытия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_48
+ (Отчетность УИО;Система: ЕПВВ);
+Предписание (требование), запрос из Банка России;
+Запрос Анкетирование;
+</t>
+  </si>
+  <si>
+    <t>Zadacha_49
+ (Отчетность УИО;Система: ПИС);
+Электронный документооборот с Банком России;
+Электронный документооборот;
+Ответ на запрос Анкетирование. Ответная квитанция подсистемы Анкетирование Клиенту на присланные ранее данные</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_55
+ (;Система: ЦИК);
+Ответ УИО в ЦИК вро;
+Ответ на запрос ЦИК;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_58
+ (;Система: ЦИК);
+Прикладная квитанция УИО в ЦИК ;
+Прикладная квитанция УИО в ответ на запрос ЦИК ;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_59
+ (;Система: );
+Представление информации в Банк России;
+Сбор Информационного фонда Росстата;
+</t>
+  </si>
+  <si>
+    <t>Zadacha_61
+ (Отчетность УИО ;Система: ТПС НЕВА);
+Представление информации в Банк России ;
+Респонденты прямых инвестиций ;
+Передача отчетности 1-ПИ операторами ЭДО </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_62
+ (;Система: АС ЭКР );
+Представление информации в Банк России ;
+Сбор электронных описей упаковок ;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_63
+ (;Система: ЛК АСВ);
+Ответ КО в АСВ ;
+Ответ по потоку Агенства страхования вкладов (АСВ) ;
+</t>
+  </si>
+  <si>
+    <t>Zadacha_67
+ (;Система: ТПС НЕВА);
+Представление отчетности в Банк России;
+Кредитные рейтинговые агентства;
+Рейтинговые действия (4062-У)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_74
+ (ВПОДК БГ;Система: ТПС НЕВА);
+Представление отчетности в Банк России;
+Представление информации о ВПОДК и их результатах;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_76
+ (Иная информация по запросу БР;Система: ПИС);
+Представление отчетности в Банк России;
+Предоставление информации о договорах займа;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_77
+ (;Система: ПИС);
+Представление отчетности в Банк России;
+Процедура допуска;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_78
+ (ЭДО_ДКО_ ОД ОПЕРУ-1;Система: ЕПВВ);
+Предписание (требование), запрос из Банка России ;
+Извещения и уведомления по депозитным и кредитным операциям;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_80
+ (;Система: АС КНБ);
+Представление информации в Банк России ;
+Сбор файлов номеров банкнот;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_92
+ (Отчетность УИО;Система: ПИС);
+Представление отчетности в Банк России;
+Представление отчетности по форме 202-И;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_93
+ (Отчетность УИО;Система: ПИС);
+Представление отчетности в Банк России;
+Представление отчетности Операторов инвестиционных платформ;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_94
+ (Сообщения об обязательных резервах;Система: ЕПВВ);
+Электронный документооборот с Банком России;
+Расчёт и регулирование размера обязательных резервов;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_95
+ (;Система: ПИС);
+Представление отчетности в Банк России;
+Представление данных ГБО ФНС России в Банк России;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_96
+ (;Система: ЕПВВ);
+;
+Получение данных ГБО ФНС России из Банка России ;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_96_1
+ (;Система: ТПС НЕВА);
+;
+Отправка подтверждений по данным ГБО ФНС России из ФНС России;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_97
+ (ВПОДК БГ;Система: ЕПВВ);
+Представление отчетности в Банк России;
+Извещение о результатах контроля информации о ВПОДК и их результатах (ИЭС1);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_98
+ (;Система: ТПС НЕВА);
+;
+Передача отчетности по формам Федерального статистического наблюдения с использованием ПО операторов ЭДО;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_101
+ (Данные ЕИСЖС;Система: ПИС);
+Представление отчетности в Банк России;
+Представление данных АО ДОМ.РФ в Банк России;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_104
+ (Отчетность субъектов НПС;Система: ТПС НЕВА);
+Представление отчетности в Банк России;
+Представление отчетности субъектов НПС в Банк России;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_106
+ (;Система: ПИС);
+Представление отчетности в Банк России;
+Представление заявлений Операторами платежных систем;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_107
+ (Отчетность субъектов НПС;Система: ЕПВВ);
+Представление отчетности в Банк России;
+Извещение о результатах контроля отчетности субъектов НПС (ИЭС1);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_113
+ (Сбор данных о залогах;Система: ТПС НЕВА);
+Представление отчетности в Банк России;
+Представление формы 0409310;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_114
+ (Сбор данных о залогах;Система: ЕПВВ);
+Представление отчетности в Банк России;
+Извещение о результатах контроля представления формы 0409310 (ИЭС1);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_115
+ (;Система: ПИС);
+Представление отчетности в Банк России;
+Документы по процедурам допуска;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_116
+ (Отчетность УИО;Система: ЕПВВ);
+Представление отчетности в Банк России;
+Извещение о результатах контроля представления отчетности по форме 202-И (ИЭС1);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_120
+ (Отчетность УИО;Система: ПИС);
+Представление отчётности в Банк России;
+Отрпавить XBRL-CSV;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_123
+ (Сбор данных о залогах;Система: ЕПВВ);
+Представление отчетности в Банк России;
+Извещение о результатах контроля представления формы 0409310 (ИЭС2);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_124
+ (Статистическая отчетность СК/НПФ;Система: ТПС НЕВА);
+Представление отчетности в Банк России;
+Представление статистической отчетности 1-ФС (СК);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_125
+ (Статистическая отчетность СК/НПФ;Система: ЕПВВ);
+Представление отчетности в Банк России;
+Извещение о результатах контроля представления отчетности 1-ФС (СК) (ИЭС1);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_126
+ (Статистическая отчетность СК/НПФ;Система: ЕПВВ);
+Представление отчетности в Банк России;
+Извещение о результатах контроля представления отчетности 1-ФС (СК) (ИЭС2);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_127
+ (Статистическая отчетность СК/НПФ;Система: ТПС НЕВА);
+Представление отчетности в Банк России;
+Представление статистической отчетности 1-ФС (НПФ);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_128
+ (Статистическая отчетность СК/НПФ;Система: ЕПВВ);
+Представление отчетности в Банк России;
+Извещение о результатах контроля представления отчетности 1-ФС (НПФ) (ИЭС1);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_129
+ (Статистическая отчетность СК/НПФ;Система: ЕПВВ);
+Представление отчетности в Банк России;
+Извещение о результатах контроля представления отчетности 1-ФС (НПФ) (ИЭС2);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_130
+ (;Система: ПИС);
+KYC;
+Получение информации об уровне риска ЮЛ/ИП;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_133
+ (Отчетность субъектов НПС;Система: ЕПВВ);
+Представление отчетности в Банк России;
+Извещение о результатах контроля отчетности субъектов НПС (ИЭС2);
+</t>
+  </si>
+  <si>
+    <t>Zadacha_137
+ (;Система: ПИС);
+Представление отчетности в Банк России;
+KYC;
+Ежедневное информирование Банка России о составе и объеме клиентской базы (ФПС «Отчетность»)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_139
+ (;Система: ТПС НЕВА);
+Представление информации в Банк России ;
+Представление файлов с номерами банкнот в Банк России;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_140
+ (ВПОДК БГ;Система: ЕПВВ);
+Представление отчетности в Банк России;
+Извещение о результатах контроля информации о ВПОДК и их результатах (ИЭС2);
+</t>
+  </si>
+  <si>
+    <t>Zadacha_144
+ (;Система: ПИС);
+Представление отчетности в Банк России;
+Бюро кредитных историй;
+Представление сведений об обязательствах субъектов кредитных историй</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_145
+ (Представление информации по универсальному потоку;Система: АС ФЭС);
+Представление отчетности в Банк России;
+Представление информации по универсальному взаимодействию;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_146
+ (Отчетность УИО;Система: ПИС);
+Представление отчетности в Банк России;
+Представление отчетности Операторами финансовых платформ;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_147
+ (Отчетность УИО;Система: ПИС);
+Представление отчетности в Банк России;
+Представление отчетов, указанных в ч.7 ст. 12 Закона № 173-ФЗ;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_148
+ (Отчетность УИО;Система: ПИС);
+Представление отчетности в Банк России;
+Представление сведений, содержащихся в реестре членов кредитного потребительского кооператива (пайщиков);
+</t>
+  </si>
+  <si>
+    <t>Zadacha_150
+ (Иная информация по запросу БР;Система: ПИС);
+Представление отчетности в Банк России;
+Представление в Банк России иной информации;
+Представление информации по запросу в структурированном (сжатом) виде</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_153
+ (Отчетность УИО;Система: ЕПВВ);
+Представление отчетности в Банк России;
+Извещение о результатах контроля представления отчетности по форме 202-И (ИЭС2);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_155
+ (Представление отчетности КО в Банк России;Система: ПИС);
+Представление отчетности в Банк России;
+Представление отчетности КО в Банк России;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_156
+ (Представление отчетности КО в Банк России;Система: ЕПВВ);
+Представление отчетности в Банк России;
+Извещение о результатах контроля отчетности  КО в Банк России (ИЭС1);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_159
+ (Представление отчетности КО в Банк России;Система: ЕПВВ);
+Представление отчетности в Банк России;
+Извещение о результатах контроля отчетности  КО в Банк России (ИЭС2);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_157
+ (Представление отчетности банковских холдингов в Банк России;Система: ПИС);
+Представление отчетности в Банк России;
+Представление отчетности КО в Банк России;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_158
+ (Представление отчетности банковских холдингов в Банк России;Система: ЕПВВ);
+Представление отчетности в Банк России;
+Извещение о результатах контроля отчетности  банковских холдингов в Банк России (ИЭС1);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_160
+ (Представление отчетности банковских холдингов в Банк России;Система: ЕПВВ);
+Представление отчетности в Банк России;
+Извещение о результатах контроля отчетности  банковских холдингов в Банк России (ИЭС1);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_161
+ (;Система: ЕПВВ);
+Электронный документооборот с Банком России;
+Получение ЭОП;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_162
+ (;Система: АС ЭКР);
+Электронный документооборот с Банком России;
+Уведомление о результате контроля ЭОП;
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_179
+ (;Система: ПИС);
+Представление отчетности в Банк России;
+Направление информации в реестр эмиссионных ценных бумаг;
+</t>
+  </si>
+  <si>
+    <t>Zadacha_218
+ (ЭДО_ДКО_ОД ОПЕРУ-1;Система: ПИС);
+Представление отчетности в Банк России;
+Электронный документооборот;
+Изменение параметров исполнения обязательств по кредитам Банка России по инициативе КО (поток ЭДО ДКО)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zadacha_219
+ (ЭДО_ДКО_ОД ОПЕРУ-1;Система: ПИС);
+Предписание (требование), запрос из Банка России;
+Информация о результатах приема/обработки ЭС;
+</t>
+  </si>
+  <si>
+    <t>Задачи</t>
+  </si>
+  <si>
+    <t>Zadacha_1-6?Задача 1-6</t>
+  </si>
+  <si>
+    <t>Zadacha_1-7?Задача 1-7</t>
+  </si>
+  <si>
+    <t>Zadacha_1-9?Задача 1-9</t>
+  </si>
+  <si>
+    <t>Zadacha_1-18?Задача 1-18</t>
+  </si>
+  <si>
+    <t>Zadacha_1-21?Задача 1-21</t>
+  </si>
+  <si>
+    <t>Zadacha_1-24-2?Задача 1-24-2</t>
+  </si>
+  <si>
+    <t>Zadacha_1-28?Задача 1-28</t>
+  </si>
+  <si>
+    <t>Zadacha_1-29?Задача 1-29</t>
+  </si>
+  <si>
+    <t>Zadacha_1-30?Задача 1-30</t>
+  </si>
+  <si>
+    <t>Zadacha_1-31?Задача 1-31</t>
+  </si>
+  <si>
+    <t>Zadacha_1-32?Задача 1-32</t>
+  </si>
+  <si>
+    <t>Zadacha_1-33?Задача 1-33</t>
+  </si>
+  <si>
+    <t>Zadacha_1-35?Задача 1-35</t>
+  </si>
+  <si>
+    <t>Zadacha_1-40-2?Задача 1-40-2</t>
+  </si>
+  <si>
+    <t>Zadacha_2-1?Задача 2-1</t>
+  </si>
+  <si>
+    <t>Zadacha_3-1?Задача 3-1</t>
+  </si>
+  <si>
+    <t>Zadacha_17?Задача 17</t>
+  </si>
+  <si>
+    <t>Zadacha_20?Задача 20</t>
+  </si>
+  <si>
+    <t>Zadacha_22?Задача 22</t>
+  </si>
+  <si>
+    <t>Zadacha_24?Задача 24</t>
+  </si>
+  <si>
+    <t>Zadacha_25?Задача 25</t>
+  </si>
+  <si>
+    <t>Zadacha_26?Задача 26</t>
+  </si>
+  <si>
+    <t>Zadacha_27?Задача 27</t>
+  </si>
+  <si>
+    <t>Zadacha_28?Задача 28</t>
+  </si>
+  <si>
+    <t>Zadacha_29?Задача 29</t>
+  </si>
+  <si>
+    <t>Zadacha_30?Задача 30</t>
+  </si>
+  <si>
+    <t>Zadacha_31?Задача 31</t>
+  </si>
+  <si>
+    <t>Zadacha_32?Задача 32</t>
+  </si>
+  <si>
+    <t>Zadacha_40?Задача 40</t>
+  </si>
+  <si>
+    <t>Zadacha_41?Задача 41</t>
+  </si>
+  <si>
+    <t>Zadacha_42?Задача 42</t>
+  </si>
+  <si>
+    <t>Zadacha_44?Задача 44</t>
+  </si>
+  <si>
+    <t>Zadacha_46?Задача 46</t>
+  </si>
+  <si>
+    <t>Zadacha_47?Задача 47</t>
+  </si>
+  <si>
+    <t>Zadacha_48?Задача 48</t>
+  </si>
+  <si>
+    <t>Zadacha_49?Задача 49</t>
+  </si>
+  <si>
+    <t>Zadacha_55?Задача 55</t>
+  </si>
+  <si>
+    <t>Zadacha_58?Задача 58</t>
+  </si>
+  <si>
+    <t>Zadacha_59?Задача 59</t>
+  </si>
+  <si>
+    <t>Zadacha_61?Задача 61</t>
+  </si>
+  <si>
+    <t>Zadacha_62?Задача 62</t>
+  </si>
+  <si>
+    <t>Zadacha_63?Задача 63</t>
+  </si>
+  <si>
+    <t>Zadacha_67?Задача 67</t>
+  </si>
+  <si>
+    <t>Zadacha_74?Задача 74</t>
+  </si>
+  <si>
+    <t>Zadacha_76?Задача 76</t>
+  </si>
+  <si>
+    <t>Zadacha_77?Задача 77</t>
+  </si>
+  <si>
+    <t>Zadacha_78?Задача 78</t>
+  </si>
+  <si>
+    <t>Zadacha_80?Задача 80</t>
+  </si>
+  <si>
+    <t>Zadacha_92?Задача 92</t>
+  </si>
+  <si>
+    <t>Zadacha_93?Задача 93</t>
+  </si>
+  <si>
+    <t>Zadacha_94?Задача 94</t>
+  </si>
+  <si>
+    <t>Zadacha_95?Задача 95</t>
+  </si>
+  <si>
+    <t>Zadacha_96?Задача 96</t>
+  </si>
+  <si>
+    <t>Zadacha_96_1?Задача 96_1</t>
+  </si>
+  <si>
+    <t>Zadacha_97?Задача 97</t>
+  </si>
+  <si>
+    <t>Zadacha_98?Задача 98</t>
+  </si>
+  <si>
+    <t>Zadacha_101?Задача 101</t>
+  </si>
+  <si>
+    <t>Zadacha_104?Задача 104</t>
+  </si>
+  <si>
+    <t>Zadacha_106?Задача 106</t>
+  </si>
+  <si>
+    <t>Zadacha_107?Задача 107</t>
+  </si>
+  <si>
+    <t>Zadacha_113?Задача 113</t>
+  </si>
+  <si>
+    <t>Zadacha_114?Задача 114</t>
+  </si>
+  <si>
+    <t>Zadacha_115?Задача 115</t>
+  </si>
+  <si>
+    <t>Zadacha_116?Задача 116</t>
+  </si>
+  <si>
+    <t>Zadacha_120?Задача 120</t>
+  </si>
+  <si>
+    <t>Zadacha_123?Задача 123</t>
+  </si>
+  <si>
+    <t>Zadacha_124?Задача 124</t>
+  </si>
+  <si>
+    <t>Zadacha_125?Задача 125</t>
+  </si>
+  <si>
+    <t>Zadacha_126?Задача 126</t>
+  </si>
+  <si>
+    <t>Zadacha_127?Задача 127</t>
+  </si>
+  <si>
+    <t>Zadacha_128?Задача 128</t>
+  </si>
+  <si>
+    <t>Zadacha_129?Задача 129</t>
+  </si>
+  <si>
+    <t>Zadacha_130?Задача 130</t>
+  </si>
+  <si>
+    <t>Zadacha_133?Задача 133</t>
+  </si>
+  <si>
+    <t>Zadacha_137?Задача 137</t>
+  </si>
+  <si>
+    <t>Zadacha_139?Задача 139</t>
+  </si>
+  <si>
+    <t>Zadacha_140?Задача 140</t>
+  </si>
+  <si>
+    <t>Zadacha_144?Задача 144</t>
+  </si>
+  <si>
+    <t>Zadacha_145?Задача 145</t>
+  </si>
+  <si>
+    <t>Zadacha_146?Задача 146</t>
+  </si>
+  <si>
+    <t>Zadacha_147?Задача 147</t>
+  </si>
+  <si>
+    <t>Zadacha_148?Задача 148</t>
+  </si>
+  <si>
+    <t>Zadacha_150?Задача 150</t>
+  </si>
+  <si>
+    <t>Zadacha_153?Задача 153</t>
+  </si>
+  <si>
+    <t>Zadacha_155?Задача 155</t>
+  </si>
+  <si>
+    <t>Zadacha_156?Задача 156</t>
+  </si>
+  <si>
+    <t>Zadacha_159?Задача 159</t>
+  </si>
+  <si>
+    <t>Zadacha_157?Задача 157</t>
+  </si>
+  <si>
+    <t>Zadacha_158?Задача 158</t>
+  </si>
+  <si>
+    <t>Zadacha_160?Задача 160</t>
+  </si>
+  <si>
+    <t>Zadacha_161?Задача 161</t>
+  </si>
+  <si>
+    <t>Zadacha_162?Задача 162</t>
+  </si>
+  <si>
+    <t>Zadacha_179?Задача 179</t>
+  </si>
+  <si>
+    <t>Zadacha_218?Задача 218</t>
+  </si>
+  <si>
+    <t>Zadacha_219?Задача 219</t>
   </si>
 </sst>
 </file>
@@ -5974,10 +7126,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:E797"/>
+  <dimension ref="A1:E851"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A714" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C726" sqref="C726"/>
+    <sheetView tabSelected="1" topLeftCell="A844" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C861" sqref="C861"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16149,20 +17301,1760 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="790" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A727" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B727" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C727" s="13" t="s">
+        <v>1414</v>
+      </c>
+      <c r="D727" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A728" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B728" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C728" s="13" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D728" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A729" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B729" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C729" s="13" t="s">
+        <v>1416</v>
+      </c>
+      <c r="D729" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A730" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B730" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C730" s="13" t="s">
+        <v>1417</v>
+      </c>
+      <c r="D730" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A731" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B731" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C731" s="13" t="s">
+        <v>1418</v>
+      </c>
+      <c r="D731" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A732" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B732" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C732" s="13" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D732" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A733" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B733" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C733" s="13" t="s">
+        <v>1420</v>
+      </c>
+      <c r="D733" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A734" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B734" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C734" s="13" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D734" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A735" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B735" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C735" s="13" t="s">
+        <v>1422</v>
+      </c>
+      <c r="D735" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A736" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B736" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C736" s="13" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D736" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A737" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B737" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C737" s="13" t="s">
+        <v>1424</v>
+      </c>
+      <c r="D737" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A738" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B738" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C738" s="13" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D738" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A739" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B739" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C739" s="13" t="s">
+        <v>1426</v>
+      </c>
+      <c r="D739" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A740" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B740" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C740" s="13" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D740" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A741" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B741" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C741" s="13" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D741" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A742" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B742" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C742" s="13" t="s">
+        <v>1429</v>
+      </c>
+      <c r="D742" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A743" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B743" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C743" s="13" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D743" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A744" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B744" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C744" s="13" t="s">
+        <v>1431</v>
+      </c>
+      <c r="D744" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A745" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B745" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C745" s="13" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D745" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A746" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B746" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C746" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D746" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="747" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A747" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B747" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C747" t="s">
+        <v>1453</v>
+      </c>
+      <c r="D747" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="748" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A748" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B748" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C748" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D748" s="19" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="749" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+      <c r="A749" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B749" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C749" t="s">
+        <v>1455</v>
+      </c>
+      <c r="D749" s="5" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="750" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+      <c r="A750" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B750" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C750" s="13" t="s">
+        <v>1465</v>
+      </c>
+      <c r="D750" s="5" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A751" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B751" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C751" s="13" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D751" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A752" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B752" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C752" s="13" t="s">
+        <v>1466</v>
+      </c>
+      <c r="D752" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A753" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B753" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C753" s="13" t="s">
+        <v>1457</v>
+      </c>
+      <c r="D753" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A754" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B754" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C754" s="13" t="s">
+        <v>1458</v>
+      </c>
+      <c r="D754" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A755" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B755" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C755" s="13" t="s">
+        <v>1459</v>
+      </c>
+      <c r="D755" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="756" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A756" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B756" s="5" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C756" s="13" t="s">
+        <v>1460</v>
+      </c>
+      <c r="D756" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="757" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A757" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B757" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C757" t="s">
+        <v>1570</v>
+      </c>
+      <c r="D757" s="5" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="758" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A758" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B758" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C758" t="s">
+        <v>1571</v>
+      </c>
+      <c r="D758" s="5" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="759" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A759" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B759" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C759" t="s">
+        <v>1572</v>
+      </c>
+      <c r="D759" s="5" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="760" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A760" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B760" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C760" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D760" s="5" t="s">
+        <v>1477</v>
+      </c>
+    </row>
+    <row r="761" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A761" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B761" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C761" t="s">
+        <v>1574</v>
+      </c>
+      <c r="D761" s="5" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="762" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A762" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B762" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C762" t="s">
+        <v>1575</v>
+      </c>
+      <c r="D762" s="5" t="s">
+        <v>1479</v>
+      </c>
+    </row>
+    <row r="763" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A763" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B763" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C763" t="s">
+        <v>1576</v>
+      </c>
+      <c r="D763" s="5" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="764" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A764" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B764" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C764" t="s">
+        <v>1577</v>
+      </c>
+      <c r="D764" s="5" t="s">
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="765" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A765" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B765" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C765" t="s">
+        <v>1578</v>
+      </c>
+      <c r="D765" s="5" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="766" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A766" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B766" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C766" t="s">
+        <v>1579</v>
+      </c>
+      <c r="D766" s="5" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="767" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A767" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B767" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C767" t="s">
+        <v>1580</v>
+      </c>
+      <c r="D767" s="5" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="768" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A768" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B768" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C768" t="s">
+        <v>1581</v>
+      </c>
+      <c r="D768" s="5" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="769" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A769" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B769" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C769" t="s">
+        <v>1582</v>
+      </c>
+      <c r="D769" s="5" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="770" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A770" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B770" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C770" t="s">
+        <v>1583</v>
+      </c>
+      <c r="D770" s="5" t="s">
+        <v>1487</v>
+      </c>
+    </row>
+    <row r="771" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A771" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B771" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C771" t="s">
+        <v>1584</v>
+      </c>
+      <c r="D771" s="5" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="772" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A772" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B772" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C772" t="s">
+        <v>1585</v>
+      </c>
+      <c r="D772" s="5" t="s">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="773" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A773" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B773" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C773" t="s">
+        <v>1586</v>
+      </c>
+      <c r="D773" s="5" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="774" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A774" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B774" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C774" t="s">
+        <v>1587</v>
+      </c>
+      <c r="D774" s="5" t="s">
+        <v>1491</v>
+      </c>
+    </row>
+    <row r="775" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A775" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B775" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C775" t="s">
+        <v>1588</v>
+      </c>
+      <c r="D775" s="5" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="776" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A776" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B776" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C776" t="s">
+        <v>1589</v>
+      </c>
+      <c r="D776" s="5" t="s">
+        <v>1493</v>
+      </c>
+    </row>
+    <row r="777" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A777" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B777" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C777" t="s">
+        <v>1590</v>
+      </c>
+      <c r="D777" s="5" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="778" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A778" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B778" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C778" t="s">
+        <v>1591</v>
+      </c>
+      <c r="D778" s="5" t="s">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="779" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A779" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B779" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C779" t="s">
+        <v>1592</v>
+      </c>
+      <c r="D779" s="5" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="780" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A780" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B780" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C780" t="s">
+        <v>1593</v>
+      </c>
+      <c r="D780" s="5" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="781" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A781" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B781" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C781" t="s">
+        <v>1594</v>
+      </c>
+      <c r="D781" s="5" t="s">
+        <v>1498</v>
+      </c>
+    </row>
+    <row r="782" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A782" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B782" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C782" t="s">
+        <v>1595</v>
+      </c>
+      <c r="D782" s="5" t="s">
+        <v>1499</v>
+      </c>
+    </row>
+    <row r="783" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A783" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B783" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C783" t="s">
+        <v>1596</v>
+      </c>
+      <c r="D783" s="5" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="784" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A784" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B784" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C784" t="s">
+        <v>1597</v>
+      </c>
+      <c r="D784" s="5" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="785" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A785" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B785" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C785" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D785" s="5" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="786" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A786" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B786" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C786" t="s">
+        <v>1599</v>
+      </c>
+      <c r="D786" s="5" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="787" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A787" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B787" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C787" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D787" s="5" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="788" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A788" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B788" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C788" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D788" s="5" t="s">
+        <v>1505</v>
+      </c>
+    </row>
+    <row r="789" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A789" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B789" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C789" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D789" s="5" t="s">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="790" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A790" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B790" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C790" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D790" s="5" t="s">
+        <v>1507</v>
+      </c>
       <c r="E790" s="1"/>
     </row>
-    <row r="791" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A791" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B791" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C791" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D791" s="5" t="s">
+        <v>1508</v>
+      </c>
       <c r="E791" s="1"/>
     </row>
-    <row r="792" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A792" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B792" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C792" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D792" s="5" t="s">
+        <v>1509</v>
+      </c>
       <c r="E792" s="1"/>
     </row>
-    <row r="793" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A793" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B793" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C793" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D793" s="5" t="s">
+        <v>1510</v>
+      </c>
       <c r="E793" s="1"/>
     </row>
-    <row r="797" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A794" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B794" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C794" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D794" s="5" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="795" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A795" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B795" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C795" t="s">
+        <v>1608</v>
+      </c>
+      <c r="D795" s="5" t="s">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="796" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A796" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B796" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C796" t="s">
+        <v>1609</v>
+      </c>
+      <c r="D796" s="5" t="s">
+        <v>1513</v>
+      </c>
+    </row>
+    <row r="797" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A797" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B797" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C797" t="s">
+        <v>1610</v>
+      </c>
+      <c r="D797" s="5" t="s">
+        <v>1514</v>
+      </c>
       <c r="E797" s="1"/>
+    </row>
+    <row r="798" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A798" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B798" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C798" t="s">
+        <v>1611</v>
+      </c>
+      <c r="D798" s="5" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="799" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A799" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B799" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C799" t="s">
+        <v>1612</v>
+      </c>
+      <c r="D799" s="5" t="s">
+        <v>1516</v>
+      </c>
+    </row>
+    <row r="800" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A800" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B800" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C800" t="s">
+        <v>1613</v>
+      </c>
+      <c r="D800" s="5" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="801" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A801" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B801" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C801" t="s">
+        <v>1614</v>
+      </c>
+      <c r="D801" s="5" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="802" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A802" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B802" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C802" t="s">
+        <v>1615</v>
+      </c>
+      <c r="D802" s="5" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="803" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A803" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B803" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C803" t="s">
+        <v>1616</v>
+      </c>
+      <c r="D803" s="5" t="s">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="804" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A804" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B804" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C804" t="s">
+        <v>1617</v>
+      </c>
+      <c r="D804" s="5" t="s">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="805" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A805" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B805" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C805" t="s">
+        <v>1618</v>
+      </c>
+      <c r="D805" s="5" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="806" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A806" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B806" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C806" t="s">
+        <v>1619</v>
+      </c>
+      <c r="D806" s="5" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="807" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A807" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B807" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C807" t="s">
+        <v>1620</v>
+      </c>
+      <c r="D807" s="5" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="808" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A808" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B808" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C808" t="s">
+        <v>1621</v>
+      </c>
+      <c r="D808" s="5" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="809" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A809" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B809" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C809" t="s">
+        <v>1622</v>
+      </c>
+      <c r="D809" s="5" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="810" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A810" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B810" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C810" t="s">
+        <v>1623</v>
+      </c>
+      <c r="D810" s="5" t="s">
+        <v>1527</v>
+      </c>
+    </row>
+    <row r="811" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A811" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B811" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C811" t="s">
+        <v>1624</v>
+      </c>
+      <c r="D811" s="5" t="s">
+        <v>1528</v>
+      </c>
+    </row>
+    <row r="812" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A812" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B812" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C812" t="s">
+        <v>1625</v>
+      </c>
+      <c r="D812" s="5" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="813" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A813" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B813" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C813" t="s">
+        <v>1626</v>
+      </c>
+      <c r="D813" s="5" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="814" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A814" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B814" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C814" t="s">
+        <v>1627</v>
+      </c>
+      <c r="D814" s="5" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="815" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A815" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B815" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C815" t="s">
+        <v>1628</v>
+      </c>
+      <c r="D815" s="5" t="s">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="816" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A816" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B816" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C816" t="s">
+        <v>1629</v>
+      </c>
+      <c r="D816" s="5" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="817" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A817" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B817" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C817" t="s">
+        <v>1630</v>
+      </c>
+      <c r="D817" s="5" t="s">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="818" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A818" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B818" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C818" t="s">
+        <v>1631</v>
+      </c>
+      <c r="D818" s="5" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="819" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A819" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B819" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C819" t="s">
+        <v>1632</v>
+      </c>
+      <c r="D819" s="5" t="s">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="820" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A820" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B820" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C820" t="s">
+        <v>1633</v>
+      </c>
+      <c r="D820" s="5" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="821" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A821" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B821" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C821" t="s">
+        <v>1634</v>
+      </c>
+      <c r="D821" s="5" t="s">
+        <v>1538</v>
+      </c>
+    </row>
+    <row r="822" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A822" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B822" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C822" t="s">
+        <v>1635</v>
+      </c>
+      <c r="D822" s="5" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="823" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A823" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B823" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C823" t="s">
+        <v>1636</v>
+      </c>
+      <c r="D823" s="5" t="s">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="824" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A824" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B824" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C824" t="s">
+        <v>1637</v>
+      </c>
+      <c r="D824" s="5" t="s">
+        <v>1541</v>
+      </c>
+    </row>
+    <row r="825" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A825" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B825" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C825" t="s">
+        <v>1638</v>
+      </c>
+      <c r="D825" s="5" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="826" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A826" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B826" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C826" t="s">
+        <v>1639</v>
+      </c>
+      <c r="D826" s="5" t="s">
+        <v>1543</v>
+      </c>
+    </row>
+    <row r="827" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A827" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B827" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C827" t="s">
+        <v>1640</v>
+      </c>
+      <c r="D827" s="5" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="828" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A828" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B828" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C828" t="s">
+        <v>1641</v>
+      </c>
+      <c r="D828" s="5" t="s">
+        <v>1545</v>
+      </c>
+    </row>
+    <row r="829" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A829" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B829" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C829" t="s">
+        <v>1642</v>
+      </c>
+      <c r="D829" s="5" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="830" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A830" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B830" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C830" t="s">
+        <v>1643</v>
+      </c>
+      <c r="D830" s="5" t="s">
+        <v>1547</v>
+      </c>
+    </row>
+    <row r="831" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A831" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B831" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C831" t="s">
+        <v>1644</v>
+      </c>
+      <c r="D831" s="5" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="832" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A832" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B832" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C832" t="s">
+        <v>1645</v>
+      </c>
+      <c r="D832" s="5" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="833" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A833" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B833" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C833" t="s">
+        <v>1646</v>
+      </c>
+      <c r="D833" s="5" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="834" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A834" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B834" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C834" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D834" s="5" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="835" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A835" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B835" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C835" t="s">
+        <v>1648</v>
+      </c>
+      <c r="D835" s="5" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="836" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A836" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B836" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C836" t="s">
+        <v>1649</v>
+      </c>
+      <c r="D836" s="5" t="s">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="837" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A837" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B837" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C837" t="s">
+        <v>1650</v>
+      </c>
+      <c r="D837" s="5" t="s">
+        <v>1554</v>
+      </c>
+    </row>
+    <row r="838" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A838" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B838" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C838" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D838" s="5" t="s">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="839" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A839" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B839" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C839" t="s">
+        <v>1652</v>
+      </c>
+      <c r="D839" s="5" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="840" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A840" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B840" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C840" t="s">
+        <v>1653</v>
+      </c>
+      <c r="D840" s="5" t="s">
+        <v>1557</v>
+      </c>
+    </row>
+    <row r="841" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A841" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B841" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C841" t="s">
+        <v>1654</v>
+      </c>
+      <c r="D841" s="5" t="s">
+        <v>1558</v>
+      </c>
+    </row>
+    <row r="842" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A842" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B842" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C842" t="s">
+        <v>1655</v>
+      </c>
+      <c r="D842" s="5" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="843" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A843" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B843" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C843" t="s">
+        <v>1656</v>
+      </c>
+      <c r="D843" s="5" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="844" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A844" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B844" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C844" t="s">
+        <v>1657</v>
+      </c>
+      <c r="D844" s="5" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="845" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A845" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B845" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C845" t="s">
+        <v>1658</v>
+      </c>
+      <c r="D845" s="5" t="s">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="846" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A846" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B846" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C846" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D846" s="5" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="847" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A847" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B847" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C847" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D847" s="5" t="s">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="848" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A848" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B848" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C848" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D848" s="5" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="849" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A849" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B849" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C849" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D849" s="5" t="s">
+        <v>1566</v>
+      </c>
+    </row>
+    <row r="850" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A850" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B850" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C850" t="s">
+        <v>1663</v>
+      </c>
+      <c r="D850" s="5" t="s">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="851" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A851" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="B851" s="5" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C851" t="s">
+        <v>1664</v>
+      </c>
+      <c r="D851" s="5" t="s">
+        <v>1568</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="C1:E13"/>

--- a/data/ответы.xlsx
+++ b/data/ответы.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vikto\.vscode\InfoCompas_2.0\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FaybisovichVA\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="34360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23280" windowHeight="15480"/>
   </bookViews>
   <sheets>
     <sheet name="Topic359_Messages" sheetId="1" r:id="rId1"/>
@@ -7125,21 +7125,21 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:E850"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A461" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A463" sqref="A463:XFD463"/>
+    <sheetView tabSelected="1" topLeftCell="A452" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C452" sqref="C452"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="83" style="13" customWidth="1"/>
-    <col min="4" max="4" width="102.1796875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="90.453125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.1796875" style="1"/>
+    <col min="4" max="4" width="102.140625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="90.42578125" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>965</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>967</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>967</v>
       </c>
@@ -7184,7 +7184,7 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>967</v>
       </c>
@@ -7198,7 +7198,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>967</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>967</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>967</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>967</v>
       </c>
@@ -7254,7 +7254,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>967</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>967</v>
       </c>
@@ -7282,7 +7282,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="165" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>967</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="174" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>967</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>967</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>967</v>
       </c>
@@ -7338,7 +7338,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>967</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>967</v>
       </c>
@@ -7366,7 +7366,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>967</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>967</v>
       </c>
@@ -7395,7 +7395,7 @@
       </c>
       <c r="E18"/>
     </row>
-    <row r="19" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>967</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>967</v>
       </c>
@@ -7423,7 +7423,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>967</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>975</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="261" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>975</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>967</v>
       </c>
@@ -7479,7 +7479,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>975</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>975</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="116" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>967</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>967</v>
       </c>
@@ -7535,7 +7535,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="232" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>967</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="203" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>967</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>975</v>
       </c>
@@ -7577,7 +7577,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="58" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>975</v>
       </c>
@@ -7591,7 +7591,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>975</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>859</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>975</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>981</v>
       </c>
@@ -7633,7 +7633,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>981</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>981</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>967</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>967</v>
       </c>
@@ -7689,7 +7689,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>967</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>967</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>967</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>967</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>967</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>975</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>967</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>967</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>967</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>967</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A50" s="5" t="s">
         <v>967</v>
       </c>
@@ -7843,7 +7843,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
         <v>975</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A52" s="5" t="s">
         <v>981</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>975</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A54" s="5" t="s">
         <v>975</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="290" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>975</v>
       </c>
@@ -7913,7 +7913,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="5" t="s">
         <v>967</v>
       </c>
@@ -7927,7 +7927,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="5" t="s">
         <v>975</v>
       </c>
@@ -7941,7 +7941,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>975</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>680</v>
       </c>
@@ -7966,7 +7966,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
         <v>680</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="5" t="s">
         <v>680</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>680</v>
       </c>
@@ -8008,7 +8008,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>680</v>
       </c>
@@ -8022,7 +8022,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>680</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>680</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="5" t="s">
         <v>680</v>
       </c>
@@ -8064,7 +8064,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="5" t="s">
         <v>680</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="5" t="s">
         <v>680</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>680</v>
       </c>
@@ -8106,7 +8106,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="5" t="s">
         <v>680</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="5" t="s">
         <v>680</v>
       </c>
@@ -8134,7 +8134,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>680</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="5" t="s">
         <v>680</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="5" t="s">
         <v>680</v>
       </c>
@@ -8176,7 +8176,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="5" t="s">
         <v>680</v>
       </c>
@@ -8190,7 +8190,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="5" t="s">
         <v>680</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>680</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>680</v>
       </c>
@@ -8232,7 +8232,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>680</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>680</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>680</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>680</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>680</v>
       </c>
@@ -8302,7 +8302,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>680</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
         <v>680</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
         <v>680</v>
       </c>
@@ -8344,7 +8344,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
         <v>680</v>
       </c>
@@ -8358,7 +8358,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>680</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>680</v>
       </c>
@@ -8386,7 +8386,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>680</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>680</v>
       </c>
@@ -8414,7 +8414,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>680</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>680</v>
       </c>
@@ -8442,7 +8442,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>680</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>680</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>680</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>680</v>
       </c>
@@ -8498,7 +8498,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>680</v>
       </c>
@@ -8512,7 +8512,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>680</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>680</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>680</v>
       </c>
@@ -8554,7 +8554,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>680</v>
       </c>
@@ -8568,7 +8568,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="5" t="s">
         <v>680</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>680</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>680</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>680</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>680</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>680</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>680</v>
       </c>
@@ -8666,7 +8666,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>680</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>680</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>680</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="5" t="s">
         <v>680</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="5" t="s">
         <v>680</v>
       </c>
@@ -8736,7 +8736,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="5" t="s">
         <v>680</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="5" t="s">
         <v>680</v>
       </c>
@@ -8764,7 +8764,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A117" s="5" t="s">
         <v>680</v>
       </c>
@@ -8778,7 +8778,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="5" t="s">
         <v>680</v>
       </c>
@@ -8792,7 +8792,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="5" t="s">
         <v>680</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="5" t="s">
         <v>680</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="5" t="s">
         <v>680</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="5" t="s">
         <v>680</v>
       </c>
@@ -8848,7 +8848,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="5" t="s">
         <v>680</v>
       </c>
@@ -8862,7 +8862,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="5" t="s">
         <v>680</v>
       </c>
@@ -8876,7 +8876,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>680</v>
       </c>
@@ -8890,7 +8890,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>680</v>
       </c>
@@ -8904,7 +8904,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>680</v>
       </c>
@@ -8918,7 +8918,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>680</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>680</v>
       </c>
@@ -8946,7 +8946,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>680</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>680</v>
       </c>
@@ -8974,7 +8974,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>680</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="5" t="s">
         <v>680</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A134" s="5" t="s">
         <v>680</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>680</v>
       </c>
@@ -9030,7 +9030,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="5" t="s">
         <v>680</v>
       </c>
@@ -9044,7 +9044,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="5" t="s">
         <v>680</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="5" t="s">
         <v>680</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="5" t="s">
         <v>680</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="5" t="s">
         <v>680</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="5" t="s">
         <v>680</v>
       </c>
@@ -9114,7 +9114,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="5" t="s">
         <v>680</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="5" t="s">
         <v>680</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A144" s="5" t="s">
         <v>680</v>
       </c>
@@ -9156,7 +9156,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="5" t="s">
         <v>680</v>
       </c>
@@ -9170,7 +9170,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="5" t="s">
         <v>680</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>680</v>
       </c>
@@ -9198,7 +9198,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="5" t="s">
         <v>680</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="5" t="s">
         <v>680</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="5" t="s">
         <v>680</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="5" t="s">
         <v>680</v>
       </c>
@@ -9254,7 +9254,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="5" t="s">
         <v>680</v>
       </c>
@@ -9268,7 +9268,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A153" s="5" t="s">
         <v>680</v>
       </c>
@@ -9282,7 +9282,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="5" t="s">
         <v>680</v>
       </c>
@@ -9296,7 +9296,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="5" t="s">
         <v>680</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="5" t="s">
         <v>680</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="5" t="s">
         <v>680</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="5" t="s">
         <v>680</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="5" t="s">
         <v>680</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="160" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A160" s="5" t="s">
         <v>680</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>680</v>
       </c>
@@ -9394,7 +9394,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>680</v>
       </c>
@@ -9408,7 +9408,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="163" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>680</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A164" s="5" t="s">
         <v>680</v>
       </c>
@@ -9436,7 +9436,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A165" s="5" t="s">
         <v>680</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>680</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="5" t="s">
         <v>680</v>
       </c>
@@ -9478,7 +9478,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="5" t="s">
         <v>680</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="5" t="s">
         <v>680</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A170" s="5" t="s">
         <v>680</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>680</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="172" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>680</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>680</v>
       </c>
@@ -9562,7 +9562,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
         <v>680</v>
       </c>
@@ -9576,7 +9576,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="175" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
         <v>680</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
         <v>680</v>
       </c>
@@ -9604,7 +9604,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
         <v>680</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
         <v>680</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
         <v>680</v>
       </c>
@@ -9646,7 +9646,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
         <v>680</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="5" t="s">
         <v>680</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="5" t="s">
         <v>680</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="5" t="s">
         <v>680</v>
       </c>
@@ -9702,7 +9702,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="184" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A184" s="5" t="s">
         <v>680</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="185" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="5" t="s">
         <v>680</v>
       </c>
@@ -9730,7 +9730,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="5" t="s">
         <v>680</v>
       </c>
@@ -9744,7 +9744,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="5" t="s">
         <v>680</v>
       </c>
@@ -9758,7 +9758,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="5" t="s">
         <v>680</v>
       </c>
@@ -9772,7 +9772,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="5" t="s">
         <v>680</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="5" t="s">
         <v>680</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="5" t="s">
         <v>680</v>
       </c>
@@ -9814,7 +9814,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="5" t="s">
         <v>680</v>
       </c>
@@ -9828,7 +9828,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="193" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A193" s="5" t="s">
         <v>680</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="194" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="5" t="s">
         <v>680</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="195" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="5" t="s">
         <v>680</v>
       </c>
@@ -9870,7 +9870,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="5" t="s">
         <v>680</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="197" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A197" s="5" t="s">
         <v>680</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="5" t="s">
         <v>680</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="199" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="5" t="s">
         <v>680</v>
       </c>
@@ -9926,7 +9926,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="5" t="s">
         <v>680</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="201" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="5" t="s">
         <v>680</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="5" t="s">
         <v>680</v>
       </c>
@@ -9968,7 +9968,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="5" t="s">
         <v>680</v>
       </c>
@@ -9982,7 +9982,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="5" t="s">
         <v>680</v>
       </c>
@@ -9996,7 +9996,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="5" t="s">
         <v>680</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="206" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="5" t="s">
         <v>680</v>
       </c>
@@ -10024,7 +10024,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="5" t="s">
         <v>680</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="5" t="s">
         <v>680</v>
       </c>
@@ -10052,7 +10052,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="209" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="5" t="s">
         <v>680</v>
       </c>
@@ -10066,7 +10066,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="210" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="5" t="s">
         <v>680</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="5" t="s">
         <v>680</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="212" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="5" t="s">
         <v>680</v>
       </c>
@@ -10108,7 +10108,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="213" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="5" t="s">
         <v>680</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="214" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="5" t="s">
         <v>680</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="5" t="s">
         <v>680</v>
       </c>
@@ -10150,7 +10150,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="216" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="5" t="s">
         <v>680</v>
       </c>
@@ -10164,7 +10164,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="5" t="s">
         <v>680</v>
       </c>
@@ -10178,7 +10178,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="5" t="s">
         <v>680</v>
       </c>
@@ -10192,7 +10192,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="5" t="s">
         <v>680</v>
       </c>
@@ -10206,7 +10206,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="5" t="s">
         <v>680</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="221" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>680</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="5" t="s">
         <v>680</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="223" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A223" s="5" t="s">
         <v>680</v>
       </c>
@@ -10262,7 +10262,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="224" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="5" t="s">
         <v>680</v>
       </c>
@@ -10276,7 +10276,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="5" t="s">
         <v>680</v>
       </c>
@@ -10290,7 +10290,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="226" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A226" s="5" t="s">
         <v>680</v>
       </c>
@@ -10304,7 +10304,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="227" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="5" t="s">
         <v>680</v>
       </c>
@@ -10318,7 +10318,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="228" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A228" s="5" t="s">
         <v>680</v>
       </c>
@@ -10332,7 +10332,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="5" t="s">
         <v>680</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="5" t="s">
         <v>680</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="5" t="s">
         <v>680</v>
       </c>
@@ -10374,7 +10374,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="5" t="s">
         <v>680</v>
       </c>
@@ -10388,7 +10388,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="5" t="s">
         <v>680</v>
       </c>
@@ -10402,7 +10402,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="5" t="s">
         <v>680</v>
       </c>
@@ -10416,7 +10416,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="5" t="s">
         <v>680</v>
       </c>
@@ -10430,7 +10430,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="5" t="s">
         <v>680</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="237" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>680</v>
       </c>
@@ -10458,7 +10458,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="5" t="s">
         <v>680</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="5" t="s">
         <v>680</v>
       </c>
@@ -10486,7 +10486,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="5" t="s">
         <v>680</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="241" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="5" t="s">
         <v>680</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="5" t="s">
         <v>680</v>
       </c>
@@ -10528,7 +10528,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="5" t="s">
         <v>680</v>
       </c>
@@ -10542,7 +10542,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="5" t="s">
         <v>680</v>
       </c>
@@ -10556,7 +10556,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="5" t="s">
         <v>680</v>
       </c>
@@ -10570,7 +10570,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="5" t="s">
         <v>680</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="5" t="s">
         <v>680</v>
       </c>
@@ -10598,7 +10598,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="5" t="s">
         <v>680</v>
       </c>
@@ -10612,7 +10612,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="249" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A249" s="5" t="s">
         <v>680</v>
       </c>
@@ -10626,7 +10626,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="5" t="s">
         <v>680</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>643</v>
       </c>
     </row>
-    <row r="251" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="5" t="s">
         <v>680</v>
       </c>
@@ -10654,7 +10654,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="5" t="s">
         <v>680</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="253" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A253" s="5" t="s">
         <v>680</v>
       </c>
@@ -10682,7 +10682,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="5" t="s">
         <v>680</v>
       </c>
@@ -10696,7 +10696,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>680</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="256" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>680</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="5" t="s">
         <v>680</v>
       </c>
@@ -10738,7 +10738,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="5" t="s">
         <v>680</v>
       </c>
@@ -10752,7 +10752,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="5" t="s">
         <v>680</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="5" t="s">
         <v>680</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="5" t="s">
         <v>680</v>
       </c>
@@ -10794,7 +10794,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="262" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="5" t="s">
         <v>680</v>
       </c>
@@ -10808,7 +10808,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="263" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A263" s="5" t="s">
         <v>680</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="5" t="s">
         <v>680</v>
       </c>
@@ -10836,7 +10836,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="5" t="s">
         <v>680</v>
       </c>
@@ -10850,7 +10850,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="5" t="s">
         <v>680</v>
       </c>
@@ -10864,7 +10864,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="267" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="5" t="s">
         <v>680</v>
       </c>
@@ -10878,7 +10878,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="5" t="s">
         <v>680</v>
       </c>
@@ -10892,7 +10892,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="5" t="s">
         <v>680</v>
       </c>
@@ -10906,7 +10906,7 @@
         <v>668</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="5" t="s">
         <v>680</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="5" t="s">
         <v>680</v>
       </c>
@@ -10934,7 +10934,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="5" t="s">
         <v>680</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="5" t="s">
         <v>680</v>
       </c>
@@ -10962,7 +10962,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="274" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="5" t="s">
         <v>680</v>
       </c>
@@ -10976,7 +10976,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="275" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="5" t="s">
         <v>680</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="276" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="5" t="s">
         <v>975</v>
       </c>
@@ -11004,7 +11004,7 @@
         <v>684</v>
       </c>
     </row>
-    <row r="277" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="5" t="s">
         <v>985</v>
       </c>
@@ -11018,7 +11018,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="278" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="5" t="s">
         <v>985</v>
       </c>
@@ -11032,7 +11032,7 @@
         <v>686</v>
       </c>
     </row>
-    <row r="279" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="5" t="s">
         <v>985</v>
       </c>
@@ -11046,7 +11046,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="280" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="5" t="s">
         <v>985</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="281" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="5" t="s">
         <v>985</v>
       </c>
@@ -11074,7 +11074,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="282" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="5" t="s">
         <v>985</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="283" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="5" t="s">
         <v>985</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>691</v>
       </c>
     </row>
-    <row r="284" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="5" t="s">
         <v>985</v>
       </c>
@@ -11116,7 +11116,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="285" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="5" t="s">
         <v>985</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="286" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="5" t="s">
         <v>985</v>
       </c>
@@ -11144,7 +11144,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="287" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="5" t="s">
         <v>985</v>
       </c>
@@ -11158,7 +11158,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="288" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="5" t="s">
         <v>985</v>
       </c>
@@ -11172,7 +11172,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="289" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="5" t="s">
         <v>985</v>
       </c>
@@ -11186,7 +11186,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="290" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="5" t="s">
         <v>985</v>
       </c>
@@ -11200,7 +11200,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="291" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="5" t="s">
         <v>985</v>
       </c>
@@ -11214,7 +11214,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="292" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="5" t="s">
         <v>985</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="293" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="5" t="s">
         <v>985</v>
       </c>
@@ -11242,7 +11242,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="294" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="5" t="s">
         <v>985</v>
       </c>
@@ -11256,7 +11256,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="295" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="5" t="s">
         <v>985</v>
       </c>
@@ -11270,7 +11270,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="296" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="5" t="s">
         <v>985</v>
       </c>
@@ -11284,7 +11284,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="297" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="5" t="s">
         <v>985</v>
       </c>
@@ -11298,7 +11298,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="298" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="5" t="s">
         <v>985</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="299" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="5" t="s">
         <v>985</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="300" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="5" t="s">
         <v>985</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="301" spans="1:4" ht="42.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="5" t="s">
         <v>985</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="302" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="5" t="s">
         <v>985</v>
       </c>
@@ -11368,7 +11368,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="303" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="5" t="s">
         <v>985</v>
       </c>
@@ -11382,7 +11382,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="304" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="5" t="s">
         <v>985</v>
       </c>
@@ -11396,7 +11396,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="305" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="5" t="s">
         <v>985</v>
       </c>
@@ -11410,7 +11410,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="306" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="5" t="s">
         <v>985</v>
       </c>
@@ -11424,7 +11424,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="307" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="5" t="s">
         <v>985</v>
       </c>
@@ -11438,7 +11438,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="308" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="5" t="s">
         <v>985</v>
       </c>
@@ -11452,7 +11452,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="309" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="5" t="s">
         <v>985</v>
       </c>
@@ -11466,7 +11466,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="310" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="5" t="s">
         <v>985</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="311" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="5" t="s">
         <v>985</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="312" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="5" t="s">
         <v>985</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="313" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="5" t="s">
         <v>985</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="314" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="5" t="s">
         <v>985</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="315" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="5" t="s">
         <v>985</v>
       </c>
@@ -11550,7 +11550,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="316" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="5" t="s">
         <v>985</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="317" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="5" t="s">
         <v>985</v>
       </c>
@@ -11578,7 +11578,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="318" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="5" t="s">
         <v>985</v>
       </c>
@@ -11592,7 +11592,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="319" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="5" t="s">
         <v>985</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="320" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="5" t="s">
         <v>985</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="321" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="5" t="s">
         <v>985</v>
       </c>
@@ -11634,7 +11634,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="322" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="5" t="s">
         <v>985</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="323" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="5" t="s">
         <v>985</v>
       </c>
@@ -11662,7 +11662,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="324" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="5" t="s">
         <v>985</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="325" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="5" t="s">
         <v>985</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="326" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="5" t="s">
         <v>985</v>
       </c>
@@ -11704,7 +11704,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="327" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="5" t="s">
         <v>985</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="328" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="5" t="s">
         <v>985</v>
       </c>
@@ -11732,7 +11732,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="329" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="5" t="s">
         <v>985</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="330" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="5" t="s">
         <v>985</v>
       </c>
@@ -11760,7 +11760,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="331" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="5" t="s">
         <v>985</v>
       </c>
@@ -11774,7 +11774,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="332" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="5" t="s">
         <v>985</v>
       </c>
@@ -11788,7 +11788,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="333" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="5" t="s">
         <v>985</v>
       </c>
@@ -11802,7 +11802,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="334" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="5" t="s">
         <v>985</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="335" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="5" t="s">
         <v>985</v>
       </c>
@@ -11830,7 +11830,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="336" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="5" t="s">
         <v>985</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="337" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="5" t="s">
         <v>985</v>
       </c>
@@ -11858,7 +11858,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="338" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="5" t="s">
         <v>985</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="339" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="5" t="s">
         <v>985</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="340" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="5" t="s">
         <v>985</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>743</v>
       </c>
     </row>
-    <row r="341" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="5" t="s">
         <v>985</v>
       </c>
@@ -11914,7 +11914,7 @@
         <v>744</v>
       </c>
     </row>
-    <row r="342" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="5" t="s">
         <v>985</v>
       </c>
@@ -11928,7 +11928,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="343" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="5" t="s">
         <v>985</v>
       </c>
@@ -11942,7 +11942,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="344" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="5" t="s">
         <v>985</v>
       </c>
@@ -11956,7 +11956,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="345" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="5" t="s">
         <v>985</v>
       </c>
@@ -11970,7 +11970,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="346" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="5" t="s">
         <v>985</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="347" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="5" t="s">
         <v>985</v>
       </c>
@@ -11998,7 +11998,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="348" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="5" t="s">
         <v>985</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="349" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="5" t="s">
         <v>985</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="350" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="5" t="s">
         <v>985</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="5" t="s">
         <v>985</v>
       </c>
@@ -12054,7 +12054,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="352" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="5" t="s">
         <v>985</v>
       </c>
@@ -12068,7 +12068,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="353" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="5" t="s">
         <v>985</v>
       </c>
@@ -12082,7 +12082,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="354" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="5" t="s">
         <v>985</v>
       </c>
@@ -12096,7 +12096,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="355" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="5" t="s">
         <v>985</v>
       </c>
@@ -12110,7 +12110,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="356" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="5" t="s">
         <v>985</v>
       </c>
@@ -12124,7 +12124,7 @@
         <v>757</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="5" t="s">
         <v>985</v>
       </c>
@@ -12138,7 +12138,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="358" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="5" t="s">
         <v>985</v>
       </c>
@@ -12152,7 +12152,7 @@
         <v>759</v>
       </c>
     </row>
-    <row r="359" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="5" t="s">
         <v>985</v>
       </c>
@@ -12166,7 +12166,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="360" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="5" t="s">
         <v>985</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="361" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="5" t="s">
         <v>985</v>
       </c>
@@ -12194,7 +12194,7 @@
         <v>762</v>
       </c>
     </row>
-    <row r="362" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="5" t="s">
         <v>985</v>
       </c>
@@ -12208,7 +12208,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="363" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="5" t="s">
         <v>985</v>
       </c>
@@ -12222,7 +12222,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="364" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="5" t="s">
         <v>985</v>
       </c>
@@ -12236,7 +12236,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="365" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="5" t="s">
         <v>985</v>
       </c>
@@ -12250,7 +12250,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="366" spans="1:4" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="5" t="s">
         <v>985</v>
       </c>
@@ -12264,7 +12264,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="367" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A367" s="5" t="s">
         <v>975</v>
       </c>
@@ -12278,7 +12278,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="368" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A368" s="5" t="s">
         <v>967</v>
       </c>
@@ -12292,7 +12292,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="369" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A369" s="5" t="s">
         <v>981</v>
       </c>
@@ -12306,7 +12306,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="370" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A370" s="5" t="s">
         <v>975</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>860</v>
       </c>
     </row>
-    <row r="371" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A371" s="5" t="s">
         <v>981</v>
       </c>
@@ -12334,7 +12334,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="5" t="s">
         <v>981</v>
       </c>
@@ -12348,7 +12348,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="5" t="s">
         <v>981</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="5" t="s">
         <v>981</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="5" t="s">
         <v>981</v>
       </c>
@@ -12390,7 +12390,7 @@
         <v>864</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="5" t="s">
         <v>975</v>
       </c>
@@ -12404,7 +12404,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="377" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A377" s="5" t="s">
         <v>975</v>
       </c>
@@ -12418,7 +12418,7 @@
         <v>868</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="5" t="s">
         <v>975</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="379" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A379" s="5" t="s">
         <v>981</v>
       </c>
@@ -12446,7 +12446,7 @@
         <v>871</v>
       </c>
     </row>
-    <row r="380" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A380" s="5" t="s">
         <v>981</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="381" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A381" s="5" t="s">
         <v>981</v>
       </c>
@@ -12474,7 +12474,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="382" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A382" s="5" t="s">
         <v>981</v>
       </c>
@@ -12488,7 +12488,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="383" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A383" s="5" t="s">
         <v>981</v>
       </c>
@@ -12502,7 +12502,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="384" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A384" s="5" t="s">
         <v>981</v>
       </c>
@@ -12516,7 +12516,7 @@
         <v>878</v>
       </c>
     </row>
-    <row r="385" spans="1:4" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:4" ht="330" x14ac:dyDescent="0.25">
       <c r="A385" s="5" t="s">
         <v>975</v>
       </c>
@@ -12530,7 +12530,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="386" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A386" s="5" t="s">
         <v>975</v>
       </c>
@@ -12544,7 +12544,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="387" spans="1:4" ht="319" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:4" ht="360" x14ac:dyDescent="0.25">
       <c r="A387" s="5" t="s">
         <v>981</v>
       </c>
@@ -12558,7 +12558,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A388" s="5" t="s">
         <v>975</v>
       </c>
@@ -12572,7 +12572,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="389" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A389" s="5" t="s">
         <v>981</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="390" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A390" s="5" t="s">
         <v>967</v>
       </c>
@@ -12600,7 +12600,7 @@
         <v>887</v>
       </c>
     </row>
-    <row r="391" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A391" s="5" t="s">
         <v>967</v>
       </c>
@@ -12614,7 +12614,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="5" t="s">
         <v>975</v>
       </c>
@@ -12628,7 +12628,7 @@
         <v>892</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="5" t="s">
         <v>975</v>
       </c>
@@ -12642,7 +12642,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="394" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A394" s="5" t="s">
         <v>975</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="5" t="s">
         <v>975</v>
       </c>
@@ -12670,7 +12670,7 @@
         <v>898</v>
       </c>
     </row>
-    <row r="396" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="5" t="s">
         <v>975</v>
       </c>
@@ -12684,7 +12684,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="397" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="5" t="s">
         <v>975</v>
       </c>
@@ -12698,7 +12698,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="398" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A398" s="5" t="s">
         <v>975</v>
       </c>
@@ -12712,7 +12712,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="399" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
         <v>975</v>
       </c>
@@ -12726,7 +12726,7 @@
         <v>906</v>
       </c>
     </row>
-    <row r="400" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
         <v>975</v>
       </c>
@@ -12740,7 +12740,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
         <v>975</v>
       </c>
@@ -12754,7 +12754,7 @@
         <v>910</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A402" s="5" t="s">
         <v>975</v>
       </c>
@@ -12768,7 +12768,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="5" t="s">
         <v>975</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>914</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="5" t="s">
         <v>975</v>
       </c>
@@ -12796,7 +12796,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="5" t="s">
         <v>975</v>
       </c>
@@ -12810,7 +12810,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="406" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="5" t="s">
         <v>975</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="407" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A407" s="5" t="s">
         <v>975</v>
       </c>
@@ -12838,7 +12838,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="408" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A408" s="5" t="s">
         <v>975</v>
       </c>
@@ -12852,7 +12852,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="409" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A409" s="5" t="s">
         <v>975</v>
       </c>
@@ -12866,7 +12866,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
         <v>975</v>
       </c>
@@ -12880,7 +12880,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
         <v>975</v>
       </c>
@@ -12894,7 +12894,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="412" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A412" s="5" t="s">
         <v>975</v>
       </c>
@@ -12908,7 +12908,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="413" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A413" s="5" t="s">
         <v>975</v>
       </c>
@@ -12922,7 +12922,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="414" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A414" s="5" t="s">
         <v>967</v>
       </c>
@@ -12936,7 +12936,7 @@
         <v>935</v>
       </c>
     </row>
-    <row r="415" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A415" s="5" t="s">
         <v>967</v>
       </c>
@@ -12950,7 +12950,7 @@
         <v>936</v>
       </c>
     </row>
-    <row r="416" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A416" s="5" t="s">
         <v>975</v>
       </c>
@@ -12964,7 +12964,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="5" t="s">
         <v>975</v>
       </c>
@@ -12978,7 +12978,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="5" t="s">
         <v>975</v>
       </c>
@@ -12992,7 +12992,7 @@
         <v>943</v>
       </c>
     </row>
-    <row r="419" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A419" s="5" t="s">
         <v>975</v>
       </c>
@@ -13006,7 +13006,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="420" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A420" s="5" t="s">
         <v>975</v>
       </c>
@@ -13020,7 +13020,7 @@
         <v>945</v>
       </c>
     </row>
-    <row r="421" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A421" s="5" t="s">
         <v>975</v>
       </c>
@@ -13034,7 +13034,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="422" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A422" s="5" t="s">
         <v>975</v>
       </c>
@@ -13048,7 +13048,7 @@
         <v>947</v>
       </c>
     </row>
-    <row r="423" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A423" s="5" t="s">
         <v>975</v>
       </c>
@@ -13062,7 +13062,7 @@
         <v>948</v>
       </c>
     </row>
-    <row r="424" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A424" s="5" t="s">
         <v>975</v>
       </c>
@@ -13076,7 +13076,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="425" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A425" s="5" t="s">
         <v>975</v>
       </c>
@@ -13090,7 +13090,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="426" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A426" s="5" t="s">
         <v>975</v>
       </c>
@@ -13104,7 +13104,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="427" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A427" s="5" t="s">
         <v>975</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="428" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A428" s="5" t="s">
         <v>975</v>
       </c>
@@ -13132,7 +13132,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A429" s="5" t="s">
         <v>975</v>
       </c>
@@ -13146,7 +13146,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="430" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A430" s="5" t="s">
         <v>975</v>
       </c>
@@ -13160,7 +13160,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="431" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A431" s="5" t="s">
         <v>967</v>
       </c>
@@ -13174,7 +13174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A432" s="5" t="s">
         <v>981</v>
       </c>
@@ -13188,7 +13188,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="433" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A433" s="5" t="s">
         <v>975</v>
       </c>
@@ -13202,7 +13202,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="434" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A434" s="5" t="s">
         <v>975</v>
       </c>
@@ -13216,7 +13216,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="435" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A435" s="5" t="s">
         <v>981</v>
       </c>
@@ -13230,7 +13230,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="436" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A436" s="5" t="s">
         <v>981</v>
       </c>
@@ -13244,7 +13244,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="437" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A437" s="5" t="s">
         <v>981</v>
       </c>
@@ -13258,7 +13258,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="438" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A438" s="5" t="s">
         <v>981</v>
       </c>
@@ -13272,7 +13272,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="439" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A439" s="5" t="s">
         <v>981</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="440" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A440" s="5" t="s">
         <v>981</v>
       </c>
@@ -13300,7 +13300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="441" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A441" s="5" t="s">
         <v>981</v>
       </c>
@@ -13314,7 +13314,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="442" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A442" s="5" t="s">
         <v>981</v>
       </c>
@@ -13328,7 +13328,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="443" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A443" s="5" t="s">
         <v>981</v>
       </c>
@@ -13342,7 +13342,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="444" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A444" s="5" t="s">
         <v>981</v>
       </c>
@@ -13356,7 +13356,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="445" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A445" s="5" t="s">
         <v>981</v>
       </c>
@@ -13370,7 +13370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="446" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A446" s="5" t="s">
         <v>981</v>
       </c>
@@ -13384,7 +13384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="447" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A447" s="5" t="s">
         <v>981</v>
       </c>
@@ -13398,7 +13398,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="448" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A448" s="5" t="s">
         <v>981</v>
       </c>
@@ -13412,7 +13412,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="449" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A449" s="5" t="s">
         <v>981</v>
       </c>
@@ -13426,7 +13426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="450" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A450" s="5" t="s">
         <v>981</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="451" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A451" s="5" t="s">
         <v>981</v>
       </c>
@@ -13454,7 +13454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="452" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A452" s="5" t="s">
         <v>975</v>
       </c>
@@ -13468,7 +13468,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="453" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:4" ht="300" x14ac:dyDescent="0.25">
       <c r="A453" s="5" t="s">
         <v>975</v>
       </c>
@@ -13482,7 +13482,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="454" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A454" s="5" t="s">
         <v>975</v>
       </c>
@@ -13496,7 +13496,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="455" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A455" s="5" t="s">
         <v>975</v>
       </c>
@@ -13510,7 +13510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="456" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A456" s="5" t="s">
         <v>975</v>
       </c>
@@ -13524,7 +13524,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="457" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A457" s="5" t="s">
         <v>975</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="458" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A458" s="5" t="s">
         <v>975</v>
       </c>
@@ -13552,7 +13552,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="459" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A459" s="5" t="s">
         <v>975</v>
       </c>
@@ -13566,7 +13566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="460" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:4" ht="285" x14ac:dyDescent="0.25">
       <c r="A460" s="5" t="s">
         <v>975</v>
       </c>
@@ -13580,7 +13580,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="461" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A461" s="5" t="s">
         <v>975</v>
       </c>
@@ -13594,7 +13594,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="462" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A462" s="5" t="s">
         <v>975</v>
       </c>
@@ -13608,7 +13608,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="463" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:4" ht="255" x14ac:dyDescent="0.25">
       <c r="A463" s="5" t="s">
         <v>975</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="464" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A464" s="5" t="s">
         <v>975</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="465" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A465" s="5" t="s">
         <v>975</v>
       </c>
@@ -13650,7 +13650,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="466" spans="1:4" ht="290" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A466" s="5" t="s">
         <v>975</v>
       </c>
@@ -13664,7 +13664,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="467" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A467" s="5" t="s">
         <v>967</v>
       </c>
@@ -13678,7 +13678,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="468" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A468" s="5" t="s">
         <v>975</v>
       </c>
@@ -13692,7 +13692,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="469" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A469" s="5" t="s">
         <v>975</v>
       </c>
@@ -13706,7 +13706,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="470" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A470" s="5" t="s">
         <v>967</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="471" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A471" s="5" t="s">
         <v>981</v>
       </c>
@@ -13734,7 +13734,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="472" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A472" s="5" t="s">
         <v>967</v>
       </c>
@@ -13748,7 +13748,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="473" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A473" s="5" t="s">
         <v>967</v>
       </c>
@@ -13762,7 +13762,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="474" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A474" s="5" t="s">
         <v>967</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="475" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A475" s="5" t="s">
         <v>967</v>
       </c>
@@ -13790,7 +13790,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="476" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A476" s="5" t="s">
         <v>967</v>
       </c>
@@ -13804,7 +13804,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="477" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A477" s="5" t="s">
         <v>975</v>
       </c>
@@ -13818,7 +13818,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="478" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A478" s="5" t="s">
         <v>975</v>
       </c>
@@ -13832,7 +13832,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="479" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A479" s="5" t="s">
         <v>975</v>
       </c>
@@ -13846,7 +13846,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="480" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A480" s="5" t="s">
         <v>981</v>
       </c>
@@ -13860,7 +13860,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="481" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A481" s="5" t="s">
         <v>981</v>
       </c>
@@ -13874,7 +13874,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="482" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A482" s="5" t="s">
         <v>975</v>
       </c>
@@ -13888,7 +13888,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="483" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A483" s="5" t="s">
         <v>975</v>
       </c>
@@ -13902,7 +13902,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="484" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A484" s="5" t="s">
         <v>975</v>
       </c>
@@ -13916,7 +13916,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="485" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A485" s="5" t="s">
         <v>975</v>
       </c>
@@ -13930,7 +13930,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="486" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A486" s="5" t="s">
         <v>981</v>
       </c>
@@ -13944,7 +13944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="487" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A487" s="5" t="s">
         <v>975</v>
       </c>
@@ -13958,7 +13958,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="488" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A488" s="5" t="s">
         <v>975</v>
       </c>
@@ -13972,7 +13972,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="489" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A489" s="5" t="s">
         <v>975</v>
       </c>
@@ -13986,7 +13986,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="490" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A490" s="5" t="s">
         <v>975</v>
       </c>
@@ -14000,7 +14000,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="491" spans="1:4" ht="319" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:4" ht="330" x14ac:dyDescent="0.25">
       <c r="A491" s="5" t="s">
         <v>981</v>
       </c>
@@ -14014,7 +14014,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="492" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A492" s="5" t="s">
         <v>981</v>
       </c>
@@ -14028,7 +14028,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="493" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A493" s="5" t="s">
         <v>981</v>
       </c>
@@ -14042,7 +14042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="494" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A494" s="5" t="s">
         <v>981</v>
       </c>
@@ -14056,7 +14056,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="495" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A495" s="5" t="s">
         <v>981</v>
       </c>
@@ -14070,7 +14070,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="496" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A496" s="5" t="s">
         <v>981</v>
       </c>
@@ -14084,7 +14084,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="497" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A497" s="5" t="s">
         <v>981</v>
       </c>
@@ -14098,7 +14098,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="498" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A498" s="5" t="s">
         <v>981</v>
       </c>
@@ -14112,7 +14112,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="499" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A499" s="5" t="s">
         <v>981</v>
       </c>
@@ -14126,7 +14126,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="500" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A500" s="5" t="s">
         <v>981</v>
       </c>
@@ -14140,7 +14140,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="501" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A501" s="5" t="s">
         <v>981</v>
       </c>
@@ -14154,7 +14154,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="502" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A502" s="5" t="s">
         <v>981</v>
       </c>
@@ -14168,7 +14168,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="503" spans="1:4" ht="290" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A503" s="5" t="s">
         <v>975</v>
       </c>
@@ -14182,7 +14182,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="504" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A504" s="5" t="s">
         <v>981</v>
       </c>
@@ -14196,7 +14196,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="505" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A505" s="5" t="s">
         <v>981</v>
       </c>
@@ -14210,7 +14210,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="506" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A506" s="5" t="s">
         <v>981</v>
       </c>
@@ -14224,7 +14224,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="507" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A507" s="5" t="s">
         <v>975</v>
       </c>
@@ -14238,7 +14238,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="508" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="508" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A508" s="5" t="s">
         <v>981</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="509" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="509" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A509" s="5" t="s">
         <v>975</v>
       </c>
@@ -14266,7 +14266,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="510" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="510" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A510" s="5" t="s">
         <v>975</v>
       </c>
@@ -14280,7 +14280,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="511" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="511" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A511" s="5" t="s">
         <v>975</v>
       </c>
@@ -14294,7 +14294,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="512" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="512" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A512" s="5" t="s">
         <v>981</v>
       </c>
@@ -14308,7 +14308,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="513" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="513" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A513" s="5" t="s">
         <v>975</v>
       </c>
@@ -14322,7 +14322,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="514" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="514" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A514" s="5" t="s">
         <v>975</v>
       </c>
@@ -14336,7 +14336,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="515" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="515" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A515" s="5" t="s">
         <v>975</v>
       </c>
@@ -14350,7 +14350,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="516" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="516" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A516" s="5" t="s">
         <v>975</v>
       </c>
@@ -14364,7 +14364,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="517" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="517" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A517" s="5" t="s">
         <v>975</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="518" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="518" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A518" s="5" t="s">
         <v>981</v>
       </c>
@@ -14392,7 +14392,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="519" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A519" s="5" t="s">
         <v>981</v>
       </c>
@@ -14406,7 +14406,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="520" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="520" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A520" s="5" t="s">
         <v>981</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="521" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="521" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A521" s="5" t="s">
         <v>981</v>
       </c>
@@ -14434,7 +14434,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="522" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="522" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A522" s="5" t="s">
         <v>981</v>
       </c>
@@ -14448,7 +14448,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="523" spans="1:4" ht="362.5" x14ac:dyDescent="0.35">
+    <row r="523" spans="1:4" ht="375" x14ac:dyDescent="0.25">
       <c r="A523" s="5" t="s">
         <v>975</v>
       </c>
@@ -14462,7 +14462,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="524" spans="1:4" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="524" spans="1:4" ht="360" x14ac:dyDescent="0.25">
       <c r="A524" s="5" t="s">
         <v>975</v>
       </c>
@@ -14476,7 +14476,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="525" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="525" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A525" s="5" t="s">
         <v>975</v>
       </c>
@@ -14490,7 +14490,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="526" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="526" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A526" s="5" t="s">
         <v>975</v>
       </c>
@@ -14504,7 +14504,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="527" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A527" s="5" t="s">
         <v>981</v>
       </c>
@@ -14518,7 +14518,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="528" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:4" ht="255" x14ac:dyDescent="0.25">
       <c r="A528" s="5" t="s">
         <v>981</v>
       </c>
@@ -14532,7 +14532,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="529" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A529" s="5" t="s">
         <v>981</v>
       </c>
@@ -14546,7 +14546,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="530" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A530" s="5" t="s">
         <v>981</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="531" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A531" s="5" t="s">
         <v>981</v>
       </c>
@@ -14574,7 +14574,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="532" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A532" s="5" t="s">
         <v>981</v>
       </c>
@@ -14588,7 +14588,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="533" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
         <v>981</v>
       </c>
@@ -14602,7 +14602,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="534" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="534" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A534" s="5" t="s">
         <v>975</v>
       </c>
@@ -14616,7 +14616,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="535" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="535" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A535" s="5" t="s">
         <v>981</v>
       </c>
@@ -14630,7 +14630,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="536" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="536" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A536" s="5" t="s">
         <v>981</v>
       </c>
@@ -14644,7 +14644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="537" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="537" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A537" s="5" t="s">
         <v>975</v>
       </c>
@@ -14658,7 +14658,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="538" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="538" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A538" s="5" t="s">
         <v>981</v>
       </c>
@@ -14672,7 +14672,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="539" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="539" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A539" s="5" t="s">
         <v>981</v>
       </c>
@@ -14686,7 +14686,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="540" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="540" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A540" s="5" t="s">
         <v>981</v>
       </c>
@@ -14700,7 +14700,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="541" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="541" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A541" s="5" t="s">
         <v>981</v>
       </c>
@@ -14714,7 +14714,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="542" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="542" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A542" s="5" t="s">
         <v>975</v>
       </c>
@@ -14728,7 +14728,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="543" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="543" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A543" s="5" t="s">
         <v>981</v>
       </c>
@@ -14742,7 +14742,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="544" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A544" s="5" t="s">
         <v>981</v>
       </c>
@@ -14756,7 +14756,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="545" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A545" s="5" t="s">
         <v>981</v>
       </c>
@@ -14770,7 +14770,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="546" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A546" s="5" t="s">
         <v>981</v>
       </c>
@@ -14784,7 +14784,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="547" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A547" s="5" t="s">
         <v>981</v>
       </c>
@@ -14798,7 +14798,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="548" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A548" s="5" t="s">
         <v>981</v>
       </c>
@@ -14812,7 +14812,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="549" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A549" s="5" t="s">
         <v>981</v>
       </c>
@@ -14826,7 +14826,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="550" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A550" s="5" t="s">
         <v>981</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="551" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A551" s="5" t="s">
         <v>975</v>
       </c>
@@ -14854,7 +14854,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="552" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A552" s="5" t="s">
         <v>981</v>
       </c>
@@ -14868,7 +14868,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="553" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A553" s="5" t="s">
         <v>981</v>
       </c>
@@ -14882,7 +14882,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="554" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A554" s="5" t="s">
         <v>981</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="555" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A555" s="5" t="s">
         <v>981</v>
       </c>
@@ -14910,7 +14910,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="556" spans="1:4" ht="290" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A556" s="5" t="s">
         <v>975</v>
       </c>
@@ -14924,7 +14924,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="557" spans="1:4" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:4" ht="330" x14ac:dyDescent="0.25">
       <c r="A557" s="5" t="s">
         <v>975</v>
       </c>
@@ -14938,7 +14938,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="558" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A558" s="5" t="s">
         <v>981</v>
       </c>
@@ -14952,7 +14952,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="559" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A559" s="5" t="s">
         <v>981</v>
       </c>
@@ -14966,7 +14966,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="560" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A560" s="5" t="s">
         <v>981</v>
       </c>
@@ -14980,7 +14980,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="561" spans="1:4" ht="377" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A561" s="5" t="s">
         <v>981</v>
       </c>
@@ -14994,7 +14994,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="562" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A562" s="5" t="s">
         <v>981</v>
       </c>
@@ -15008,7 +15008,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="563" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A563" s="5" t="s">
         <v>981</v>
       </c>
@@ -15022,7 +15022,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="564" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A564" s="5" t="s">
         <v>981</v>
       </c>
@@ -15036,7 +15036,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="565" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A565" s="5" t="s">
         <v>981</v>
       </c>
@@ -15050,7 +15050,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="566" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A566" s="5" t="s">
         <v>981</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="567" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A567" s="5" t="s">
         <v>981</v>
       </c>
@@ -15078,7 +15078,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="568" spans="1:4" ht="232" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A568" s="5" t="s">
         <v>981</v>
       </c>
@@ -15092,7 +15092,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="569" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A569" s="5" t="s">
         <v>981</v>
       </c>
@@ -15106,7 +15106,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="570" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A570" s="5" t="s">
         <v>975</v>
       </c>
@@ -15120,7 +15120,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="571" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A571" s="5" t="s">
         <v>975</v>
       </c>
@@ -15134,7 +15134,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="572" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A572" s="5" t="s">
         <v>981</v>
       </c>
@@ -15148,7 +15148,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="573" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A573" s="5" t="s">
         <v>981</v>
       </c>
@@ -15162,7 +15162,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="574" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A574" s="5" t="s">
         <v>981</v>
       </c>
@@ -15176,7 +15176,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="575" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A575" s="5" t="s">
         <v>981</v>
       </c>
@@ -15190,7 +15190,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="576" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A576" s="5" t="s">
         <v>981</v>
       </c>
@@ -15204,7 +15204,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="577" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A577" s="5" t="s">
         <v>981</v>
       </c>
@@ -15218,7 +15218,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="578" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A578" s="5" t="s">
         <v>981</v>
       </c>
@@ -15232,7 +15232,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="579" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A579" s="5" t="s">
         <v>981</v>
       </c>
@@ -15246,7 +15246,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="580" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A580" s="5" t="s">
         <v>981</v>
       </c>
@@ -15260,7 +15260,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="581" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A581" s="5" t="s">
         <v>975</v>
       </c>
@@ -15274,7 +15274,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="582" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="582" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A582" s="5" t="s">
         <v>981</v>
       </c>
@@ -15288,7 +15288,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="583" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="583" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A583" s="5" t="s">
         <v>981</v>
       </c>
@@ -15302,7 +15302,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="584" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="584" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A584" s="5" t="s">
         <v>981</v>
       </c>
@@ -15316,7 +15316,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="585" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="585" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A585" s="5" t="s">
         <v>981</v>
       </c>
@@ -15330,7 +15330,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="586" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="586" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A586" s="5" t="s">
         <v>981</v>
       </c>
@@ -15344,7 +15344,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="587" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="587" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A587" s="5" t="s">
         <v>981</v>
       </c>
@@ -15358,7 +15358,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="588" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="588" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A588" s="5" t="s">
         <v>981</v>
       </c>
@@ -15372,7 +15372,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="589" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="589" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A589" s="5" t="s">
         <v>981</v>
       </c>
@@ -15386,7 +15386,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="590" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="590" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A590" s="5" t="s">
         <v>975</v>
       </c>
@@ -15400,7 +15400,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="591" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="591" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A591" s="5" t="s">
         <v>975</v>
       </c>
@@ -15414,7 +15414,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="592" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A592" s="5" t="s">
         <v>975</v>
       </c>
@@ -15428,7 +15428,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="593" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="593" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A593" s="5" t="s">
         <v>975</v>
       </c>
@@ -15442,7 +15442,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="594" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A594" s="5" t="s">
         <v>975</v>
       </c>
@@ -15456,7 +15456,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="595" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="595" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A595" s="5" t="s">
         <v>975</v>
       </c>
@@ -15470,7 +15470,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="596" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="596" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A596" s="5" t="s">
         <v>981</v>
       </c>
@@ -15484,7 +15484,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="597" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="597" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A597" s="5" t="s">
         <v>975</v>
       </c>
@@ -15498,7 +15498,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="598" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="598" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A598" s="5" t="s">
         <v>975</v>
       </c>
@@ -15512,7 +15512,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="599" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="599" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A599" s="5" t="s">
         <v>975</v>
       </c>
@@ -15526,7 +15526,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="600" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="600" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A600" s="5" t="s">
         <v>981</v>
       </c>
@@ -15540,7 +15540,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="601" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="601" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A601" s="5" t="s">
         <v>981</v>
       </c>
@@ -15554,7 +15554,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="602" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="602" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A602" s="5" t="s">
         <v>981</v>
       </c>
@@ -15568,7 +15568,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="603" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="603" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A603" s="5" t="s">
         <v>975</v>
       </c>
@@ -15582,7 +15582,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="604" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="604" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A604" s="5" t="s">
         <v>981</v>
       </c>
@@ -15596,7 +15596,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="605" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="605" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A605" s="5" t="s">
         <v>981</v>
       </c>
@@ -15610,7 +15610,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="606" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A606" s="5" t="s">
         <v>981</v>
       </c>
@@ -15624,7 +15624,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="607" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="607" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A607" s="5" t="s">
         <v>981</v>
       </c>
@@ -15638,7 +15638,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="608" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="608" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A608" s="5" t="s">
         <v>981</v>
       </c>
@@ -15652,7 +15652,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="609" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="609" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A609" s="5" t="s">
         <v>981</v>
       </c>
@@ -15666,7 +15666,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="610" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A610" s="5" t="s">
         <v>981</v>
       </c>
@@ -15680,7 +15680,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="611" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="611" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A611" s="5" t="s">
         <v>981</v>
       </c>
@@ -15694,7 +15694,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="612" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="612" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A612" s="5" t="s">
         <v>981</v>
       </c>
@@ -15708,7 +15708,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="613" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A613" s="5" t="s">
         <v>981</v>
       </c>
@@ -15722,7 +15722,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="614" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="614" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A614" s="5" t="s">
         <v>981</v>
       </c>
@@ -15736,7 +15736,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="615" spans="1:4" ht="290" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:4" ht="300" x14ac:dyDescent="0.25">
       <c r="A615" s="5" t="s">
         <v>981</v>
       </c>
@@ -15750,7 +15750,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="616" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A616" s="5" t="s">
         <v>981</v>
       </c>
@@ -15764,7 +15764,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="617" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="617" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A617" s="5" t="s">
         <v>981</v>
       </c>
@@ -15778,7 +15778,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="618" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="618" spans="1:4" ht="270" x14ac:dyDescent="0.25">
       <c r="A618" s="5" t="s">
         <v>981</v>
       </c>
@@ -15792,7 +15792,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="619" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A619" s="5" t="s">
         <v>981</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="620" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A620" s="5" t="s">
         <v>981</v>
       </c>
@@ -15820,7 +15820,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="621" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="621" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A621" s="5" t="s">
         <v>981</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="622" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="622" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A622" s="5" t="s">
         <v>981</v>
       </c>
@@ -15848,7 +15848,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="623" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="623" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A623" s="5" t="s">
         <v>981</v>
       </c>
@@ -15862,7 +15862,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="624" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A624" s="5" t="s">
         <v>981</v>
       </c>
@@ -15876,7 +15876,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="625" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="625" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A625" s="5" t="s">
         <v>981</v>
       </c>
@@ -15890,7 +15890,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="626" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="626" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A626" s="5" t="s">
         <v>975</v>
       </c>
@@ -15904,7 +15904,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="627" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="627" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A627" s="5" t="s">
         <v>975</v>
       </c>
@@ -15918,7 +15918,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="628" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="628" spans="1:4" ht="285" x14ac:dyDescent="0.25">
       <c r="A628" s="5" t="s">
         <v>975</v>
       </c>
@@ -15932,7 +15932,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="629" spans="1:4" ht="261" x14ac:dyDescent="0.35">
+    <row r="629" spans="1:4" ht="285" x14ac:dyDescent="0.25">
       <c r="A629" s="5" t="s">
         <v>975</v>
       </c>
@@ -15946,7 +15946,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="630" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="630" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A630" s="5" t="s">
         <v>975</v>
       </c>
@@ -15960,7 +15960,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="631" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="631" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A631" s="5" t="s">
         <v>975</v>
       </c>
@@ -15974,7 +15974,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="632" spans="1:4" ht="246.5" x14ac:dyDescent="0.35">
+    <row r="632" spans="1:4" ht="255" x14ac:dyDescent="0.25">
       <c r="A632" s="5" t="s">
         <v>981</v>
       </c>
@@ -15988,7 +15988,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="633" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="633" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A633" s="5" t="s">
         <v>981</v>
       </c>
@@ -16002,7 +16002,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="634" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="634" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A634" s="5" t="s">
         <v>981</v>
       </c>
@@ -16016,7 +16016,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="635" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="635" spans="1:4" ht="240" x14ac:dyDescent="0.25">
       <c r="A635" s="5" t="s">
         <v>981</v>
       </c>
@@ -16030,7 +16030,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="636" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="636" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A636" s="5" t="s">
         <v>981</v>
       </c>
@@ -16044,7 +16044,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="637" spans="1:4" ht="406" x14ac:dyDescent="0.35">
+    <row r="637" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A637" s="5" t="s">
         <v>975</v>
       </c>
@@ -16058,7 +16058,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="638" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="638" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A638" s="5" t="s">
         <v>981</v>
       </c>
@@ -16072,7 +16072,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="639" spans="1:4" ht="290" x14ac:dyDescent="0.35">
+    <row r="639" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A639" s="5" t="s">
         <v>981</v>
       </c>
@@ -16086,7 +16086,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="640" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="640" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A640" s="5" t="s">
         <v>981</v>
       </c>
@@ -16100,7 +16100,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="641" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="641" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A641" s="5" t="s">
         <v>981</v>
       </c>
@@ -16114,7 +16114,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="642" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="642" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A642" s="5" t="s">
         <v>981</v>
       </c>
@@ -16128,7 +16128,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="643" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="643" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A643" s="5" t="s">
         <v>981</v>
       </c>
@@ -16142,7 +16142,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="644" spans="1:4" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="644" spans="1:4" ht="210" x14ac:dyDescent="0.25">
       <c r="A644" s="5" t="s">
         <v>981</v>
       </c>
@@ -16156,7 +16156,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="645" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="645" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A645" s="5" t="s">
         <v>981</v>
       </c>
@@ -16170,7 +16170,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="646" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="646" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A646" s="5" t="s">
         <v>981</v>
       </c>
@@ -16184,7 +16184,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="647" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="647" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A647" s="5" t="s">
         <v>981</v>
       </c>
@@ -16198,7 +16198,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="648" spans="1:4" ht="203" x14ac:dyDescent="0.35">
+    <row r="648" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A648" s="5" t="s">
         <v>981</v>
       </c>
@@ -16212,7 +16212,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="649" spans="1:4" ht="319" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:4" ht="345" x14ac:dyDescent="0.25">
       <c r="A649" s="5" t="s">
         <v>981</v>
       </c>
@@ -16226,7 +16226,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="650" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="650" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A650" s="5" t="s">
         <v>981</v>
       </c>
@@ -16240,7 +16240,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="651" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A651" s="5" t="s">
         <v>981</v>
       </c>
@@ -16254,7 +16254,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="652" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A652" s="5" t="s">
         <v>981</v>
       </c>
@@ -16268,7 +16268,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="653" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A653" s="5" t="s">
         <v>975</v>
       </c>
@@ -16282,7 +16282,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="654" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A654" s="5" t="s">
         <v>981</v>
       </c>
@@ -16296,7 +16296,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="655" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A655" s="5" t="s">
         <v>981</v>
       </c>
@@ -16310,7 +16310,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="656" spans="1:4" ht="217.5" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:4" ht="225" x14ac:dyDescent="0.25">
       <c r="A656" s="5" t="s">
         <v>981</v>
       </c>
@@ -16324,7 +16324,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="657" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A657" s="5" t="s">
         <v>975</v>
       </c>
@@ -16338,7 +16338,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="658" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A658" s="5" t="s">
         <v>975</v>
       </c>
@@ -16352,7 +16352,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="659" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A659" s="5" t="s">
         <v>981</v>
       </c>
@@ -16366,7 +16366,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="660" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A660" s="5" t="s">
         <v>981</v>
       </c>
@@ -16380,7 +16380,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="661" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A661" s="5" t="s">
         <v>981</v>
       </c>
@@ -16394,7 +16394,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="662" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A662" s="5" t="s">
         <v>981</v>
       </c>
@@ -16408,7 +16408,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="663" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A663" s="5" t="s">
         <v>981</v>
       </c>
@@ -16422,7 +16422,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="664" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A664" s="5" t="s">
         <v>981</v>
       </c>
@@ -16436,7 +16436,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="665" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A665" s="5" t="s">
         <v>981</v>
       </c>
@@ -16450,7 +16450,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="666" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="666" spans="1:4" ht="195" x14ac:dyDescent="0.25">
       <c r="A666" s="5" t="s">
         <v>981</v>
       </c>
@@ -16464,7 +16464,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="667" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="667" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A667" s="5" t="s">
         <v>981</v>
       </c>
@@ -16478,7 +16478,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="668" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="668" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A668" s="5" t="s">
         <v>981</v>
       </c>
@@ -16492,7 +16492,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="669" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="669" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A669" s="5" t="s">
         <v>981</v>
       </c>
@@ -16506,7 +16506,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="670" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="670" spans="1:4" ht="300" x14ac:dyDescent="0.25">
       <c r="A670" s="5" t="s">
         <v>981</v>
       </c>
@@ -16520,7 +16520,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="671" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="671" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A671" s="5" t="s">
         <v>981</v>
       </c>
@@ -16534,7 +16534,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="672" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="672" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A672" s="5" t="s">
         <v>981</v>
       </c>
@@ -16548,7 +16548,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="673" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="673" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A673" s="5" t="s">
         <v>981</v>
       </c>
@@ -16562,7 +16562,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="674" spans="1:4" ht="348" x14ac:dyDescent="0.35">
+    <row r="674" spans="1:4" ht="390" x14ac:dyDescent="0.25">
       <c r="A674" s="5" t="s">
         <v>981</v>
       </c>
@@ -16576,7 +16576,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="675" spans="1:4" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="675" spans="1:4" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A675" s="5" t="s">
         <v>981</v>
       </c>
@@ -16587,7 +16587,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="676" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="676" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A676" s="5" t="s">
         <v>981</v>
       </c>
@@ -16601,7 +16601,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="677" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="677" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A677" s="5" t="s">
         <v>981</v>
       </c>
@@ -16615,7 +16615,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="678" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="678" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A678" s="5" t="s">
         <v>981</v>
       </c>
@@ -16629,7 +16629,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="679" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="679" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A679" s="5" t="s">
         <v>981</v>
       </c>
@@ -16643,7 +16643,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="680" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A680" s="5" t="s">
         <v>981</v>
       </c>
@@ -16657,7 +16657,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="681" spans="1:4" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="681" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A681" s="5" t="s">
         <v>967</v>
       </c>
@@ -16671,7 +16671,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="682" spans="1:4" ht="261" x14ac:dyDescent="0.35">
+    <row r="682" spans="1:4" ht="285" x14ac:dyDescent="0.25">
       <c r="A682" s="5" t="s">
         <v>981</v>
       </c>
@@ -16685,7 +16685,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="683" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="683" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A683" s="5" t="s">
         <v>981</v>
       </c>
@@ -16699,7 +16699,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="684" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="684" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A684" s="5" t="s">
         <v>981</v>
       </c>
@@ -16713,7 +16713,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="685" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="685" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A685" s="5" t="s">
         <v>981</v>
       </c>
@@ -16727,7 +16727,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="686" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="686" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A686" s="5" t="s">
         <v>981</v>
       </c>
@@ -16741,7 +16741,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="687" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="687" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A687" s="5" t="s">
         <v>981</v>
       </c>
@@ -16755,7 +16755,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="688" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="688" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A688" s="5" t="s">
         <v>981</v>
       </c>
@@ -16769,7 +16769,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="689" spans="1:4" ht="275.5" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:4" ht="315" x14ac:dyDescent="0.25">
       <c r="A689" s="5" t="s">
         <v>981</v>
       </c>
@@ -16783,7 +16783,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="690" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="690" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A690" s="5" t="s">
         <v>981</v>
       </c>
@@ -16797,7 +16797,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="691" spans="1:4" ht="174" x14ac:dyDescent="0.35">
+    <row r="691" spans="1:4" ht="180" x14ac:dyDescent="0.25">
       <c r="A691" s="5" t="s">
         <v>981</v>
       </c>
@@ -16811,7 +16811,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="692" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="692" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A692" s="5" t="s">
         <v>981</v>
       </c>
@@ -16825,7 +16825,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="693" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+    <row r="693" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A693" s="5" t="s">
         <v>975</v>
       </c>
@@ -16839,7 +16839,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="694" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="694" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A694" s="5" t="s">
         <v>981</v>
       </c>
@@ -16853,7 +16853,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="695" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A695" s="5" t="s">
         <v>981</v>
       </c>
@@ -16867,7 +16867,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="696" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A696" s="5" t="s">
         <v>981</v>
       </c>
@@ -16881,7 +16881,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="697" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="697" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A697" s="5" t="s">
         <v>981</v>
       </c>
@@ -16895,7 +16895,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="698" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A698" s="5" t="s">
         <v>981</v>
       </c>
@@ -16909,7 +16909,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="699" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A699" s="5" t="s">
         <v>981</v>
       </c>
@@ -16923,7 +16923,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="700" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A700" s="5" t="s">
         <v>981</v>
       </c>
@@ -16937,7 +16937,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="701" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A701" s="5" t="s">
         <v>975</v>
       </c>
@@ -16951,7 +16951,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A702" s="5" t="s">
         <v>975</v>
       </c>
@@ -16965,7 +16965,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A703" s="5" t="s">
         <v>975</v>
       </c>
@@ -16979,7 +16979,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A704" s="5" t="s">
         <v>975</v>
       </c>
@@ -16993,7 +16993,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A705" s="5" t="s">
         <v>975</v>
       </c>
@@ -17007,7 +17007,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="706" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A706" s="5" t="s">
         <v>975</v>
       </c>
@@ -17021,7 +17021,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A707" s="5" t="s">
         <v>975</v>
       </c>
@@ -17035,7 +17035,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A708" s="5" t="s">
         <v>975</v>
       </c>
@@ -17049,7 +17049,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A709" s="5" t="s">
         <v>975</v>
       </c>
@@ -17063,7 +17063,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A710" s="5" t="s">
         <v>975</v>
       </c>
@@ -17077,7 +17077,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="711" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A711" s="5" t="s">
         <v>975</v>
       </c>
@@ -17092,7 +17092,7 @@
       </c>
       <c r="E711" s="1"/>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A712" s="5" t="s">
         <v>975</v>
       </c>
@@ -17106,7 +17106,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A713" s="5" t="s">
         <v>975</v>
       </c>
@@ -17121,7 +17121,7 @@
       </c>
       <c r="E713" s="1"/>
     </row>
-    <row r="714" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="714" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A714" s="5" t="s">
         <v>975</v>
       </c>
@@ -17135,7 +17135,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="715" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="715" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A715" s="5" t="s">
         <v>975</v>
       </c>
@@ -17149,7 +17149,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="716" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="716" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A716" s="5" t="s">
         <v>975</v>
       </c>
@@ -17163,7 +17163,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A717" s="5" t="s">
         <v>975</v>
       </c>
@@ -17177,7 +17177,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="718" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="718" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A718" s="5" t="s">
         <v>975</v>
       </c>
@@ -17191,7 +17191,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="719" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="719" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A719" s="5" t="s">
         <v>975</v>
       </c>
@@ -17205,7 +17205,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A720" s="5" t="s">
         <v>975</v>
       </c>
@@ -17219,7 +17219,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A721" s="5" t="s">
         <v>975</v>
       </c>
@@ -17234,7 +17234,7 @@
       </c>
       <c r="E721" s="1"/>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A722" s="5" t="s">
         <v>975</v>
       </c>
@@ -17248,7 +17248,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="723" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A723" s="5" t="s">
         <v>975</v>
       </c>
@@ -17262,7 +17262,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A724" s="5" t="s">
         <v>975</v>
       </c>
@@ -17276,7 +17276,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A725" s="5" t="s">
         <v>975</v>
       </c>
@@ -17290,7 +17290,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A726" s="5" t="s">
         <v>981</v>
       </c>
@@ -17304,7 +17304,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A727" s="5" t="s">
         <v>981</v>
       </c>
@@ -17318,7 +17318,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A728" s="5" t="s">
         <v>981</v>
       </c>
@@ -17332,7 +17332,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A729" s="5" t="s">
         <v>981</v>
       </c>
@@ -17346,7 +17346,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A730" s="5" t="s">
         <v>981</v>
       </c>
@@ -17360,7 +17360,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A731" s="5" t="s">
         <v>981</v>
       </c>
@@ -17374,7 +17374,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A732" s="5" t="s">
         <v>981</v>
       </c>
@@ -17388,7 +17388,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A733" s="5" t="s">
         <v>981</v>
       </c>
@@ -17402,7 +17402,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A734" s="5" t="s">
         <v>981</v>
       </c>
@@ -17416,7 +17416,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A735" s="5" t="s">
         <v>981</v>
       </c>
@@ -17430,7 +17430,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A736" s="5" t="s">
         <v>981</v>
       </c>
@@ -17444,7 +17444,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A737" s="5" t="s">
         <v>981</v>
       </c>
@@ -17458,7 +17458,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A738" s="5" t="s">
         <v>981</v>
       </c>
@@ -17472,7 +17472,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="739" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A739" s="5" t="s">
         <v>981</v>
       </c>
@@ -17486,7 +17486,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="740" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A740" s="5" t="s">
         <v>981</v>
       </c>
@@ -17500,7 +17500,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="741" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A741" s="5" t="s">
         <v>981</v>
       </c>
@@ -17514,7 +17514,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="742" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A742" s="5" t="s">
         <v>981</v>
       </c>
@@ -17528,7 +17528,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="743" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A743" s="5" t="s">
         <v>981</v>
       </c>
@@ -17542,7 +17542,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A744" s="5" t="s">
         <v>981</v>
       </c>
@@ -17556,7 +17556,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A745" s="5" t="s">
         <v>981</v>
       </c>
@@ -17570,7 +17570,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="746" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A746" s="5" t="s">
         <v>981</v>
       </c>
@@ -17584,7 +17584,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="747" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="747" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A747" s="5" t="s">
         <v>981</v>
       </c>
@@ -17598,7 +17598,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="748" spans="1:4" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="748" spans="1:4" ht="105" x14ac:dyDescent="0.25">
       <c r="A748" s="5" t="s">
         <v>981</v>
       </c>
@@ -17612,7 +17612,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="749" spans="1:4" ht="116" x14ac:dyDescent="0.35">
+    <row r="749" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A749" s="5" t="s">
         <v>981</v>
       </c>
@@ -17626,7 +17626,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A750" s="5" t="s">
         <v>981</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A751" s="5" t="s">
         <v>981</v>
       </c>
@@ -17654,7 +17654,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="752" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A752" s="5" t="s">
         <v>981</v>
       </c>
@@ -17668,7 +17668,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="753" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A753" s="5" t="s">
         <v>981</v>
       </c>
@@ -17682,7 +17682,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="754" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A754" s="5" t="s">
         <v>981</v>
       </c>
@@ -17696,7 +17696,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="755" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A755" s="5" t="s">
         <v>981</v>
       </c>
@@ -17710,7 +17710,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="756" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="756" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A756" s="5" t="s">
         <v>981</v>
       </c>
@@ -17724,7 +17724,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="757" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="757" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A757" s="5" t="s">
         <v>981</v>
       </c>
@@ -17738,7 +17738,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="758" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="758" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A758" s="5" t="s">
         <v>981</v>
       </c>
@@ -17752,7 +17752,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="759" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A759" s="5" t="s">
         <v>981</v>
       </c>
@@ -17766,7 +17766,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="760" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A760" s="5" t="s">
         <v>981</v>
       </c>
@@ -17780,7 +17780,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="761" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A761" s="5" t="s">
         <v>981</v>
       </c>
@@ -17794,7 +17794,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="762" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A762" s="5" t="s">
         <v>981</v>
       </c>
@@ -17808,7 +17808,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="763" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A763" s="5" t="s">
         <v>981</v>
       </c>
@@ -17822,7 +17822,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="764" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A764" s="5" t="s">
         <v>981</v>
       </c>
@@ -17836,7 +17836,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="765" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A765" s="5" t="s">
         <v>981</v>
       </c>
@@ -17850,7 +17850,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="766" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A766" s="5" t="s">
         <v>981</v>
       </c>
@@ -17864,7 +17864,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="767" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A767" s="5" t="s">
         <v>981</v>
       </c>
@@ -17878,7 +17878,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="768" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A768" s="5" t="s">
         <v>981</v>
       </c>
@@ -17892,7 +17892,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="769" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="769" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A769" s="5" t="s">
         <v>981</v>
       </c>
@@ -17906,7 +17906,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="770" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="770" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A770" s="5" t="s">
         <v>981</v>
       </c>
@@ -17920,7 +17920,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="771" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="771" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A771" s="5" t="s">
         <v>981</v>
       </c>
@@ -17934,7 +17934,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="772" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="772" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A772" s="5" t="s">
         <v>981</v>
       </c>
@@ -17948,7 +17948,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="773" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="773" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A773" s="5" t="s">
         <v>981</v>
       </c>
@@ -17962,7 +17962,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="774" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="774" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A774" s="5" t="s">
         <v>981</v>
       </c>
@@ -17976,7 +17976,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="775" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="775" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A775" s="5" t="s">
         <v>981</v>
       </c>
@@ -17990,7 +17990,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="776" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="776" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A776" s="5" t="s">
         <v>981</v>
       </c>
@@ -18004,7 +18004,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="777" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="777" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A777" s="5" t="s">
         <v>981</v>
       </c>
@@ -18018,7 +18018,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="778" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="778" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A778" s="5" t="s">
         <v>981</v>
       </c>
@@ -18032,7 +18032,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="779" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="779" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A779" s="5" t="s">
         <v>981</v>
       </c>
@@ -18046,7 +18046,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="780" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="780" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A780" s="5" t="s">
         <v>981</v>
       </c>
@@ -18060,7 +18060,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="781" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="781" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A781" s="5" t="s">
         <v>981</v>
       </c>
@@ -18074,7 +18074,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="782" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="782" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A782" s="5" t="s">
         <v>981</v>
       </c>
@@ -18088,7 +18088,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="783" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="783" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A783" s="5" t="s">
         <v>981</v>
       </c>
@@ -18102,7 +18102,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="784" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="784" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A784" s="5" t="s">
         <v>981</v>
       </c>
@@ -18116,7 +18116,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="785" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="785" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A785" s="5" t="s">
         <v>981</v>
       </c>
@@ -18130,7 +18130,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="786" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="786" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A786" s="5" t="s">
         <v>981</v>
       </c>
@@ -18144,7 +18144,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="787" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="787" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A787" s="5" t="s">
         <v>981</v>
       </c>
@@ -18158,7 +18158,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="788" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="788" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A788" s="5" t="s">
         <v>981</v>
       </c>
@@ -18172,7 +18172,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="789" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="789" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A789" s="5" t="s">
         <v>981</v>
       </c>
@@ -18187,7 +18187,7 @@
       </c>
       <c r="E789" s="1"/>
     </row>
-    <row r="790" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="790" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A790" s="5" t="s">
         <v>981</v>
       </c>
@@ -18202,7 +18202,7 @@
       </c>
       <c r="E790" s="1"/>
     </row>
-    <row r="791" spans="1:5" ht="87" x14ac:dyDescent="0.35">
+    <row r="791" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A791" s="5" t="s">
         <v>981</v>
       </c>
@@ -18217,7 +18217,7 @@
       </c>
       <c r="E791" s="1"/>
     </row>
-    <row r="792" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="792" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A792" s="5" t="s">
         <v>981</v>
       </c>
@@ -18232,7 +18232,7 @@
       </c>
       <c r="E792" s="1"/>
     </row>
-    <row r="793" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="793" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A793" s="5" t="s">
         <v>981</v>
       </c>
@@ -18246,7 +18246,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="794" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="794" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A794" s="5" t="s">
         <v>981</v>
       </c>
@@ -18260,7 +18260,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="795" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="795" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A795" s="5" t="s">
         <v>981</v>
       </c>
@@ -18274,7 +18274,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="796" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="796" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A796" s="5" t="s">
         <v>981</v>
       </c>
@@ -18289,7 +18289,7 @@
       </c>
       <c r="E796" s="1"/>
     </row>
-    <row r="797" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="797" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A797" s="5" t="s">
         <v>981</v>
       </c>
@@ -18303,7 +18303,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="798" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="798" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A798" s="5" t="s">
         <v>981</v>
       </c>
@@ -18317,7 +18317,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="799" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="799" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A799" s="5" t="s">
         <v>981</v>
       </c>
@@ -18331,7 +18331,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="800" spans="1:5" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="800" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A800" s="5" t="s">
         <v>981</v>
       </c>
@@ -18345,7 +18345,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="801" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="801" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A801" s="5" t="s">
         <v>981</v>
       </c>
@@ -18359,7 +18359,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="802" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="802" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A802" s="5" t="s">
         <v>981</v>
       </c>
@@ -18373,7 +18373,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="803" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="803" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A803" s="5" t="s">
         <v>981</v>
       </c>
@@ -18387,7 +18387,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="804" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="804" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A804" s="5" t="s">
         <v>981</v>
       </c>
@@ -18401,7 +18401,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="805" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="805" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A805" s="5" t="s">
         <v>981</v>
       </c>
@@ -18415,7 +18415,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="806" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="806" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A806" s="5" t="s">
         <v>981</v>
       </c>
@@ -18429,7 +18429,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="807" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="807" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A807" s="5" t="s">
         <v>981</v>
       </c>
@@ -18443,7 +18443,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="808" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="808" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A808" s="5" t="s">
         <v>981</v>
       </c>
@@ -18457,7 +18457,7 @@
         <v>1526</v>
       </c>
     </row>
-    <row r="809" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="809" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A809" s="5" t="s">
         <v>981</v>
       </c>
@@ -18471,7 +18471,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="810" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="810" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A810" s="5" t="s">
         <v>981</v>
       </c>
@@ -18485,7 +18485,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="811" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="811" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A811" s="5" t="s">
         <v>981</v>
       </c>
@@ -18499,7 +18499,7 @@
         <v>1529</v>
       </c>
     </row>
-    <row r="812" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="812" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A812" s="5" t="s">
         <v>981</v>
       </c>
@@ -18513,7 +18513,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="813" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="813" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A813" s="5" t="s">
         <v>981</v>
       </c>
@@ -18527,7 +18527,7 @@
         <v>1531</v>
       </c>
     </row>
-    <row r="814" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="814" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A814" s="5" t="s">
         <v>981</v>
       </c>
@@ -18541,7 +18541,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="815" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="815" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A815" s="5" t="s">
         <v>981</v>
       </c>
@@ -18555,7 +18555,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="816" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="816" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A816" s="5" t="s">
         <v>981</v>
       </c>
@@ -18569,7 +18569,7 @@
         <v>1534</v>
       </c>
     </row>
-    <row r="817" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="817" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A817" s="5" t="s">
         <v>981</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="818" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="818" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A818" s="5" t="s">
         <v>981</v>
       </c>
@@ -18597,7 +18597,7 @@
         <v>1536</v>
       </c>
     </row>
-    <row r="819" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="819" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A819" s="5" t="s">
         <v>981</v>
       </c>
@@ -18611,7 +18611,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="820" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="820" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A820" s="5" t="s">
         <v>981</v>
       </c>
@@ -18625,7 +18625,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="821" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="821" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A821" s="5" t="s">
         <v>981</v>
       </c>
@@ -18639,7 +18639,7 @@
         <v>1539</v>
       </c>
     </row>
-    <row r="822" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="822" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A822" s="5" t="s">
         <v>981</v>
       </c>
@@ -18653,7 +18653,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="823" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="823" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A823" s="5" t="s">
         <v>981</v>
       </c>
@@ -18667,7 +18667,7 @@
         <v>1541</v>
       </c>
     </row>
-    <row r="824" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="824" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A824" s="5" t="s">
         <v>981</v>
       </c>
@@ -18681,7 +18681,7 @@
         <v>1542</v>
       </c>
     </row>
-    <row r="825" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="825" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A825" s="5" t="s">
         <v>981</v>
       </c>
@@ -18695,7 +18695,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="826" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="826" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A826" s="5" t="s">
         <v>981</v>
       </c>
@@ -18709,7 +18709,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="827" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="827" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A827" s="5" t="s">
         <v>981</v>
       </c>
@@ -18723,7 +18723,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="828" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="828" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A828" s="5" t="s">
         <v>981</v>
       </c>
@@ -18737,7 +18737,7 @@
         <v>1546</v>
       </c>
     </row>
-    <row r="829" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="829" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A829" s="5" t="s">
         <v>981</v>
       </c>
@@ -18751,7 +18751,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="830" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="830" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A830" s="5" t="s">
         <v>981</v>
       </c>
@@ -18765,7 +18765,7 @@
         <v>1548</v>
       </c>
     </row>
-    <row r="831" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="831" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A831" s="5" t="s">
         <v>981</v>
       </c>
@@ -18779,7 +18779,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="832" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="832" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A832" s="5" t="s">
         <v>981</v>
       </c>
@@ -18793,7 +18793,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="833" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="833" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A833" s="5" t="s">
         <v>981</v>
       </c>
@@ -18807,7 +18807,7 @@
         <v>1551</v>
       </c>
     </row>
-    <row r="834" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="834" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A834" s="5" t="s">
         <v>981</v>
       </c>
@@ -18821,7 +18821,7 @@
         <v>1552</v>
       </c>
     </row>
-    <row r="835" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="835" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A835" s="5" t="s">
         <v>981</v>
       </c>
@@ -18835,7 +18835,7 @@
         <v>1553</v>
       </c>
     </row>
-    <row r="836" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="836" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A836" s="5" t="s">
         <v>981</v>
       </c>
@@ -18849,7 +18849,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="837" spans="1:4" ht="87" x14ac:dyDescent="0.35">
+    <row r="837" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A837" s="5" t="s">
         <v>981</v>
       </c>
@@ -18863,7 +18863,7 @@
         <v>1555</v>
       </c>
     </row>
-    <row r="838" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="838" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A838" s="5" t="s">
         <v>981</v>
       </c>
@@ -18877,7 +18877,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="839" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="839" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A839" s="5" t="s">
         <v>981</v>
       </c>
@@ -18891,7 +18891,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="840" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="840" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A840" s="5" t="s">
         <v>981</v>
       </c>
@@ -18905,7 +18905,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="841" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="841" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A841" s="5" t="s">
         <v>981</v>
       </c>
@@ -18919,7 +18919,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="842" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="842" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A842" s="5" t="s">
         <v>981</v>
       </c>
@@ -18933,7 +18933,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="843" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="843" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A843" s="5" t="s">
         <v>981</v>
       </c>
@@ -18947,7 +18947,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="844" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="844" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A844" s="5" t="s">
         <v>981</v>
       </c>
@@ -18961,7 +18961,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="845" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="845" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A845" s="5" t="s">
         <v>981</v>
       </c>
@@ -18975,7 +18975,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="846" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="846" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A846" s="5" t="s">
         <v>981</v>
       </c>
@@ -18989,7 +18989,7 @@
         <v>1564</v>
       </c>
     </row>
-    <row r="847" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="847" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A847" s="5" t="s">
         <v>981</v>
       </c>
@@ -19003,7 +19003,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="848" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="848" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A848" s="5" t="s">
         <v>981</v>
       </c>
@@ -19017,7 +19017,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="849" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="849" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A849" s="5" t="s">
         <v>981</v>
       </c>
@@ -19031,7 +19031,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="850" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="850" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A850" s="5" t="s">
         <v>981</v>
       </c>
